--- a/JupyterNotebooks/AvgHW/Gamma2F-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.00130579933954</v>
+        <v>0.9953908168869432</v>
       </c>
       <c r="D3">
+        <v>1.001067014520995</v>
+      </c>
+      <c r="E3">
         <v>0.9953908168869432</v>
-      </c>
-      <c r="E3">
-        <v>1.001067014520995</v>
       </c>
       <c r="F3">
         <v>1.00130579933954</v>
       </c>
       <c r="G3">
+        <v>0.9975202111000852</v>
+      </c>
+      <c r="H3">
         <v>1.002799887701161</v>
       </c>
-      <c r="H3">
-        <v>0.9975202111000852</v>
-      </c>
       <c r="I3">
+        <v>1.00130579933954</v>
+      </c>
+      <c r="J3">
         <v>1.001136630965781</v>
-      </c>
-      <c r="J3">
-        <v>0.9953908168869432</v>
       </c>
       <c r="K3">
         <v>1.00130579933954</v>
@@ -728,7 +680,7 @@
         <v>0.999870060085751</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.002512969841307</v>
+        <v>0.9911068652383997</v>
       </c>
       <c r="D4">
-        <v>0.9911068652383995</v>
+        <v>1.002062344294971</v>
       </c>
       <c r="E4">
-        <v>1.002062344294971</v>
+        <v>0.9911068652383997</v>
       </c>
       <c r="F4">
         <v>1.002512969841307</v>
       </c>
       <c r="G4">
+        <v>0.9952130645837153</v>
+      </c>
+      <c r="H4">
         <v>1.00541375040599</v>
       </c>
-      <c r="H4">
-        <v>0.9952130645837153</v>
-      </c>
       <c r="I4">
+        <v>1.002512969841307</v>
+      </c>
+      <c r="J4">
         <v>1.002193722179241</v>
-      </c>
-      <c r="J4">
-        <v>0.9911068652383995</v>
       </c>
       <c r="K4">
         <v>1.002512969841307</v>
@@ -790,7 +742,7 @@
         <v>0.9997504527572708</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.004800201666305</v>
+        <v>0.9829669993525452</v>
       </c>
       <c r="D5">
+        <v>1.003957160159217</v>
+      </c>
+      <c r="E5">
         <v>0.9829669993525452</v>
-      </c>
-      <c r="E5">
-        <v>1.003957160159217</v>
       </c>
       <c r="F5">
         <v>1.004800201666305</v>
       </c>
       <c r="G5">
+        <v>0.9908269578915755</v>
+      </c>
+      <c r="H5">
         <v>1.010391842377361</v>
       </c>
-      <c r="H5">
-        <v>0.9908269578915755</v>
-      </c>
       <c r="I5">
+        <v>1.004800201666305</v>
+      </c>
+      <c r="J5">
         <v>1.004202945205611</v>
-      </c>
-      <c r="J5">
-        <v>0.9829669993525452</v>
       </c>
       <c r="K5">
         <v>1.004800201666305</v>
@@ -852,7 +804,7 @@
         <v>0.9995243511087694</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +812,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.007029308804809</v>
+        <v>0.9750248249793178</v>
       </c>
       <c r="D6">
+        <v>1.005807382282742</v>
+      </c>
+      <c r="E6">
         <v>0.9750248249793178</v>
-      </c>
-      <c r="E6">
-        <v>1.005807382282741</v>
       </c>
       <c r="F6">
         <v>1.007029308804809</v>
       </c>
       <c r="G6">
+        <v>0.9865464487442815</v>
+      </c>
+      <c r="H6">
         <v>1.015253625805075</v>
       </c>
-      <c r="H6">
-        <v>0.9865464487442819</v>
-      </c>
       <c r="I6">
+        <v>1.007029308804809</v>
+      </c>
+      <c r="J6">
         <v>1.006163637324672</v>
-      </c>
-      <c r="J6">
-        <v>0.9750248249793178</v>
       </c>
       <c r="K6">
         <v>1.007029308804809</v>
       </c>
       <c r="L6">
-        <v>1.005807382282741</v>
+        <v>1.005807382282742</v>
       </c>
       <c r="M6">
-        <v>0.9904161036310295</v>
+        <v>0.9904161036310297</v>
       </c>
       <c r="N6">
-        <v>0.9904161036310295</v>
+        <v>0.9904161036310297</v>
       </c>
       <c r="O6">
         <v>0.9891262186687803</v>
       </c>
       <c r="P6">
-        <v>0.995953838688956</v>
+        <v>0.9959538386889563</v>
       </c>
       <c r="Q6">
-        <v>0.9959538386889562</v>
+        <v>0.9959538386889563</v>
       </c>
       <c r="R6">
-        <v>0.9987227062179194</v>
+        <v>0.9987227062179196</v>
       </c>
       <c r="S6">
-        <v>0.9987227062179194</v>
+        <v>0.9987227062179196</v>
       </c>
       <c r="T6">
         <v>0.999304204656816</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,28 +874,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000064249284991</v>
+        <v>0.999689146492388</v>
       </c>
       <c r="D7">
+        <v>1.00008519259864</v>
+      </c>
+      <c r="E7">
         <v>0.999689146492388</v>
-      </c>
-      <c r="E7">
-        <v>1.00008519259864</v>
       </c>
       <c r="F7">
         <v>1.000064249284991</v>
       </c>
       <c r="G7">
+        <v>0.9998241836358878</v>
+      </c>
+      <c r="H7">
         <v>1.000231167806696</v>
       </c>
-      <c r="H7">
-        <v>0.9998241836358878</v>
-      </c>
       <c r="I7">
+        <v>1.000064249284991</v>
+      </c>
+      <c r="J7">
         <v>1.000079086271223</v>
-      </c>
-      <c r="J7">
-        <v>0.999689146492388</v>
       </c>
       <c r="K7">
         <v>1.000064249284991</v>
@@ -976,7 +928,7 @@
         <v>0.9999955043483041</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,28 +936,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000164486776744</v>
+        <v>0.9992072424501887</v>
       </c>
       <c r="D8">
+        <v>1.000216912061246</v>
+      </c>
+      <c r="E8">
         <v>0.9992072424501887</v>
-      </c>
-      <c r="E8">
-        <v>1.000216912061246</v>
       </c>
       <c r="F8">
         <v>1.000164486776744</v>
       </c>
       <c r="G8">
+        <v>0.9995518507136781</v>
+      </c>
+      <c r="H8">
         <v>1.0005884162085</v>
       </c>
-      <c r="H8">
-        <v>0.9995518507136781</v>
-      </c>
       <c r="I8">
+        <v>1.000164486776744</v>
+      </c>
+      <c r="J8">
         <v>1.00020162757515</v>
-      </c>
-      <c r="J8">
-        <v>0.9992072424501887</v>
       </c>
       <c r="K8">
         <v>1.000164486776744</v>
@@ -1038,7 +990,7 @@
         <v>0.9999884226309176</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000232364897312</v>
+        <v>0.9988887586557398</v>
       </c>
       <c r="D9">
+        <v>1.000303057324842</v>
+      </c>
+      <c r="E9">
         <v>0.9988887586557398</v>
-      </c>
-      <c r="E9">
-        <v>1.000303057324842</v>
       </c>
       <c r="F9">
         <v>1.000232364897312</v>
       </c>
       <c r="G9">
+        <v>0.999372456281335</v>
+      </c>
+      <c r="H9">
         <v>1.000821616146706</v>
       </c>
-      <c r="H9">
-        <v>0.999372456281335</v>
-      </c>
       <c r="I9">
+        <v>1.000232364897312</v>
+      </c>
+      <c r="J9">
         <v>1.00028244590259</v>
-      </c>
-      <c r="J9">
-        <v>0.9988887586557398</v>
       </c>
       <c r="K9">
         <v>1.000232364897312</v>
@@ -1100,7 +1052,7 @@
         <v>0.9999834498680874</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000500728233338</v>
+        <v>0.9976040810530584</v>
       </c>
       <c r="D10">
-        <v>0.9976040810530582</v>
+        <v>1.000653561139002</v>
       </c>
       <c r="E10">
-        <v>1.000653561139002</v>
+        <v>0.9976040810530584</v>
       </c>
       <c r="F10">
         <v>1.000500728233338</v>
       </c>
       <c r="G10">
+        <v>0.9986468747643316</v>
+      </c>
+      <c r="H10">
         <v>1.001771940093733</v>
       </c>
-      <c r="H10">
-        <v>0.9986468747643316</v>
-      </c>
       <c r="I10">
+        <v>1.000500728233338</v>
+      </c>
+      <c r="J10">
         <v>1.000609004170097</v>
-      </c>
-      <c r="J10">
-        <v>0.9976040810530582</v>
       </c>
       <c r="K10">
         <v>1.000500728233338</v>
@@ -1138,31 +1090,31 @@
         <v>1.000653561139002</v>
       </c>
       <c r="M10">
-        <v>0.9991288210960303</v>
+        <v>0.9991288210960304</v>
       </c>
       <c r="N10">
-        <v>0.9991288210960303</v>
+        <v>0.9991288210960304</v>
       </c>
       <c r="O10">
         <v>0.9989681723187974</v>
       </c>
       <c r="P10">
-        <v>0.999586123475133</v>
+        <v>0.9995861234751331</v>
       </c>
       <c r="Q10">
-        <v>0.999586123475133</v>
+        <v>0.9995861234751331</v>
       </c>
       <c r="R10">
-        <v>0.9998147746646843</v>
+        <v>0.9998147746646844</v>
       </c>
       <c r="S10">
-        <v>0.9998147746646843</v>
+        <v>0.9998147746646844</v>
       </c>
       <c r="T10">
         <v>0.9999643649089268</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000835127713038</v>
+        <v>0.9960229464897453</v>
       </c>
       <c r="D11">
+        <v>1.001082670763185</v>
+      </c>
+      <c r="E11">
         <v>0.9960229464897453</v>
-      </c>
-      <c r="E11">
-        <v>1.001082670763185</v>
       </c>
       <c r="F11">
         <v>1.000835127713038</v>
       </c>
       <c r="G11">
+        <v>0.9977553299614972</v>
+      </c>
+      <c r="H11">
         <v>1.002934274807662</v>
       </c>
-      <c r="H11">
-        <v>0.9977553299614972</v>
-      </c>
       <c r="I11">
+        <v>1.000835127713038</v>
+      </c>
+      <c r="J11">
         <v>1.001010500472246</v>
-      </c>
-      <c r="J11">
-        <v>0.9960229464897453</v>
       </c>
       <c r="K11">
         <v>1.000835127713038</v>
@@ -1224,7 +1176,7 @@
         <v>0.9999401417012287</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9943763474419866</v>
+        <v>1.034154683619237</v>
       </c>
       <c r="D12">
+        <v>0.9898418703008088</v>
+      </c>
+      <c r="E12">
         <v>1.034154683619237</v>
-      </c>
-      <c r="E12">
-        <v>0.9898418703008088</v>
       </c>
       <c r="F12">
         <v>0.9943763474419866</v>
       </c>
       <c r="G12">
+        <v>1.019834481373462</v>
+      </c>
+      <c r="H12">
         <v>0.9720479562981402</v>
       </c>
-      <c r="H12">
-        <v>1.019834481373462</v>
-      </c>
       <c r="I12">
+        <v>0.9943763474419866</v>
+      </c>
+      <c r="J12">
         <v>0.9911638800032031</v>
-      </c>
-      <c r="J12">
-        <v>1.034154683619237</v>
       </c>
       <c r="K12">
         <v>0.9943763474419866</v>
@@ -1286,7 +1238,7 @@
         <v>1.00023653650614</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,28 +1246,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9961875332836595</v>
+        <v>1.010270937435021</v>
       </c>
       <c r="D13">
+        <v>0.99812378356514</v>
+      </c>
+      <c r="E13">
         <v>1.010270937435021</v>
-      </c>
-      <c r="E13">
-        <v>0.99812378356514</v>
       </c>
       <c r="F13">
         <v>0.9961875332836595</v>
       </c>
       <c r="G13">
+        <v>1.005200911711278</v>
+      </c>
+      <c r="H13">
         <v>0.9953655576678087</v>
       </c>
-      <c r="H13">
-        <v>1.005200911711278</v>
-      </c>
       <c r="I13">
-        <v>0.9975592800789447</v>
+        <v>0.9961875332836595</v>
       </c>
       <c r="J13">
-        <v>1.010270937435021</v>
+        <v>0.9975592800789448</v>
       </c>
       <c r="K13">
         <v>0.9961875332836595</v>
@@ -1348,7 +1300,7 @@
         <v>1.000451333956975</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,28 +1308,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9945593124844816</v>
+        <v>1.03404051740268</v>
       </c>
       <c r="D14">
+        <v>0.9897846227880728</v>
+      </c>
+      <c r="E14">
         <v>1.03404051740268</v>
-      </c>
-      <c r="E14">
-        <v>0.9897846227880728</v>
       </c>
       <c r="F14">
         <v>0.9945593124844816</v>
       </c>
       <c r="G14">
+        <v>1.019827281522938</v>
+      </c>
+      <c r="H14">
         <v>0.9718495272863409</v>
       </c>
-      <c r="H14">
-        <v>1.019827281522938</v>
-      </c>
       <c r="I14">
+        <v>0.9945593124844816</v>
+      </c>
+      <c r="J14">
         <v>0.9911766633103142</v>
-      </c>
-      <c r="J14">
-        <v>1.03404051740268</v>
       </c>
       <c r="K14">
         <v>0.9945593124844816</v>
@@ -1410,7 +1362,7 @@
         <v>1.000206320799138</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9961117454867215</v>
+        <v>1.010317149885441</v>
       </c>
       <c r="D15">
+        <v>0.9981479088090115</v>
+      </c>
+      <c r="E15">
         <v>1.010317149885441</v>
-      </c>
-      <c r="E15">
-        <v>0.9981479088090115</v>
       </c>
       <c r="F15">
         <v>0.9961117454867215</v>
       </c>
       <c r="G15">
+        <v>1.005203217176753</v>
+      </c>
+      <c r="H15">
         <v>0.9954489295334096</v>
       </c>
-      <c r="H15">
-        <v>1.005203217176753</v>
-      </c>
       <c r="I15">
+        <v>0.9961117454867215</v>
+      </c>
+      <c r="J15">
         <v>0.9975542756302054</v>
-      </c>
-      <c r="J15">
-        <v>1.010317149885441</v>
       </c>
       <c r="K15">
         <v>0.9961117454867215</v>
@@ -1472,7 +1424,7 @@
         <v>1.000463871086924</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000023300704134</v>
+        <v>0.9103443970358012</v>
       </c>
       <c r="D16">
-        <v>0.9999699447201429</v>
+        <v>1.020938812053316</v>
       </c>
       <c r="E16">
-        <v>0.9999987423794906</v>
+        <v>0.9103443970358012</v>
       </c>
       <c r="F16">
-        <v>1.000023300704134</v>
+        <v>1.025069044358937</v>
       </c>
       <c r="G16">
-        <v>0.9999919667589082</v>
+        <v>0.9516452745890305</v>
       </c>
       <c r="H16">
-        <v>0.9999891531442262</v>
+        <v>1.055050114751835</v>
       </c>
       <c r="I16">
-        <v>1.00000590186749</v>
+        <v>1.025069044358937</v>
       </c>
       <c r="J16">
-        <v>0.9999699447201429</v>
+        <v>1.022142963303914</v>
       </c>
       <c r="K16">
-        <v>1.000023300704134</v>
+        <v>1.025069044358937</v>
       </c>
       <c r="L16">
-        <v>0.9999987423794906</v>
+        <v>1.020938812053316</v>
       </c>
       <c r="M16">
-        <v>0.9999843435498168</v>
+        <v>0.9656416045445584</v>
       </c>
       <c r="N16">
-        <v>0.9999843435498168</v>
+        <v>0.9656416045445584</v>
       </c>
       <c r="O16">
-        <v>0.9999859467479532</v>
+        <v>0.960976161226049</v>
       </c>
       <c r="P16">
-        <v>0.9999973292679224</v>
+        <v>0.9854507511493514</v>
       </c>
       <c r="Q16">
-        <v>0.9999973292679224</v>
+        <v>0.9854507511493514</v>
       </c>
       <c r="R16">
-        <v>1.000003822126975</v>
+        <v>0.9953553244517479</v>
       </c>
       <c r="S16">
-        <v>1.000003822126975</v>
+        <v>0.9953553244517479</v>
       </c>
       <c r="T16">
-        <v>0.9999965015957321</v>
+        <v>0.997531767682139</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000041472953625</v>
+        <v>0.9272312764211944</v>
       </c>
       <c r="D17">
-        <v>0.9996416685529684</v>
+        <v>1.017440440829219</v>
       </c>
       <c r="E17">
-        <v>1.000116308809251</v>
+        <v>0.9272312764211944</v>
       </c>
       <c r="F17">
-        <v>1.000041472953625</v>
+        <v>1.019545301577338</v>
       </c>
       <c r="G17">
-        <v>1.000324411007555</v>
+        <v>0.9604643287484512</v>
       </c>
       <c r="H17">
-        <v>0.9997855985810818</v>
+        <v>1.046106910180834</v>
       </c>
       <c r="I17">
-        <v>1.000094491036824</v>
+        <v>1.019545301577338</v>
       </c>
       <c r="J17">
-        <v>0.9996416685529684</v>
+        <v>1.018054103661542</v>
       </c>
       <c r="K17">
-        <v>1.000041472953625</v>
+        <v>1.019545301577338</v>
       </c>
       <c r="L17">
-        <v>1.000116308809251</v>
+        <v>1.017440440829219</v>
       </c>
       <c r="M17">
-        <v>0.9998789886811095</v>
+        <v>0.9723358586252069</v>
       </c>
       <c r="N17">
-        <v>0.9998789886811095</v>
+        <v>0.9723358586252069</v>
       </c>
       <c r="O17">
-        <v>0.9998478586477669</v>
+        <v>0.9683786819996216</v>
       </c>
       <c r="P17">
-        <v>0.9999331501052815</v>
+        <v>0.9880723396092507</v>
       </c>
       <c r="Q17">
-        <v>0.9999331501052815</v>
+        <v>0.9880723396092507</v>
       </c>
       <c r="R17">
-        <v>0.9999602308173674</v>
+        <v>0.9959405801012725</v>
       </c>
       <c r="S17">
-        <v>0.9999602308173674</v>
+        <v>0.9959405801012725</v>
       </c>
       <c r="T17">
-        <v>1.000000658490218</v>
+        <v>0.9981403935697633</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000487541693251</v>
+        <v>0.9611604292391189</v>
       </c>
       <c r="D18">
-        <v>0.9985282582116822</v>
+        <v>1.010392141972599</v>
       </c>
       <c r="E18">
-        <v>1.000301487256203</v>
+        <v>0.9611604292391189</v>
       </c>
       <c r="F18">
-        <v>1.000487541693251</v>
+        <v>1.008481834207638</v>
       </c>
       <c r="G18">
-        <v>1.000768522421017</v>
+        <v>0.9781961377037887</v>
       </c>
       <c r="H18">
-        <v>0.9992335994096785</v>
+        <v>1.028076246918424</v>
       </c>
       <c r="I18">
-        <v>1.000355728755776</v>
+        <v>1.008481834207638</v>
       </c>
       <c r="J18">
-        <v>0.9985282582116822</v>
+        <v>1.009835201528638</v>
       </c>
       <c r="K18">
-        <v>1.000487541693251</v>
+        <v>1.008481834207638</v>
       </c>
       <c r="L18">
-        <v>1.000301487256203</v>
+        <v>1.010392141972599</v>
       </c>
       <c r="M18">
-        <v>0.9994148727339425</v>
+        <v>0.9857762856058589</v>
       </c>
       <c r="N18">
-        <v>0.9994148727339425</v>
+        <v>0.9857762856058589</v>
       </c>
       <c r="O18">
-        <v>0.9993544482925212</v>
+        <v>0.9832495696385021</v>
       </c>
       <c r="P18">
-        <v>0.9997724290537121</v>
+        <v>0.9933448018064519</v>
       </c>
       <c r="Q18">
-        <v>0.9997724290537121</v>
+        <v>0.9933448018064519</v>
       </c>
       <c r="R18">
-        <v>0.9999512072135968</v>
+        <v>0.9971290599067484</v>
       </c>
       <c r="S18">
-        <v>0.9999512072135968</v>
+        <v>0.9971290599067484</v>
       </c>
       <c r="T18">
-        <v>0.999945856291268</v>
+        <v>0.9993569985950345</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9578904762591284</v>
+      </c>
+      <c r="D19">
+        <v>1.011492402476594</v>
+      </c>
+      <c r="E19">
+        <v>0.9578904762591284</v>
+      </c>
+      <c r="F19">
+        <v>1.008790338601167</v>
+      </c>
+      <c r="G19">
+        <v>0.976214430697413</v>
+      </c>
+      <c r="H19">
+        <v>1.031161079451894</v>
+      </c>
+      <c r="I19">
+        <v>1.008790338601167</v>
+      </c>
+      <c r="J19">
+        <v>1.010704625939742</v>
+      </c>
+      <c r="K19">
+        <v>1.008790338601167</v>
+      </c>
+      <c r="L19">
+        <v>1.011492402476594</v>
+      </c>
+      <c r="M19">
+        <v>0.9846914393678612</v>
+      </c>
+      <c r="N19">
+        <v>0.9846914393678612</v>
+      </c>
+      <c r="O19">
+        <v>0.9818657698110451</v>
+      </c>
+      <c r="P19">
+        <v>0.9927244057789633</v>
+      </c>
+      <c r="Q19">
+        <v>0.9927244057789633</v>
+      </c>
+      <c r="R19">
+        <v>0.9967408889845142</v>
+      </c>
+      <c r="S19">
+        <v>0.9967408889845142</v>
+      </c>
+      <c r="T19">
+        <v>0.9993755589043229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999699447201429</v>
+      </c>
+      <c r="D20">
+        <v>0.9999987423794906</v>
+      </c>
+      <c r="E20">
+        <v>0.9999699447201429</v>
+      </c>
+      <c r="F20">
+        <v>1.000023300704134</v>
+      </c>
+      <c r="G20">
+        <v>0.9999891531442262</v>
+      </c>
+      <c r="H20">
+        <v>0.9999919667589082</v>
+      </c>
+      <c r="I20">
+        <v>1.000023300704134</v>
+      </c>
+      <c r="J20">
+        <v>1.00000590186749</v>
+      </c>
+      <c r="K20">
+        <v>1.000023300704134</v>
+      </c>
+      <c r="L20">
+        <v>0.9999987423794906</v>
+      </c>
+      <c r="M20">
+        <v>0.9999843435498168</v>
+      </c>
+      <c r="N20">
+        <v>0.9999843435498168</v>
+      </c>
+      <c r="O20">
+        <v>0.9999859467479532</v>
+      </c>
+      <c r="P20">
+        <v>0.9999973292679224</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999973292679224</v>
+      </c>
+      <c r="R20">
+        <v>1.000003822126975</v>
+      </c>
+      <c r="S20">
+        <v>1.000003822126975</v>
+      </c>
+      <c r="T20">
+        <v>0.9999965015957321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9996416685529684</v>
+      </c>
+      <c r="D21">
+        <v>1.000116308809251</v>
+      </c>
+      <c r="E21">
+        <v>0.9996416685529684</v>
+      </c>
+      <c r="F21">
+        <v>1.000041472953625</v>
+      </c>
+      <c r="G21">
+        <v>0.9997855985810814</v>
+      </c>
+      <c r="H21">
+        <v>1.000324411007555</v>
+      </c>
+      <c r="I21">
+        <v>1.000041472953625</v>
+      </c>
+      <c r="J21">
+        <v>1.000094491036824</v>
+      </c>
+      <c r="K21">
+        <v>1.000041472953625</v>
+      </c>
+      <c r="L21">
+        <v>1.000116308809251</v>
+      </c>
+      <c r="M21">
+        <v>0.9998789886811095</v>
+      </c>
+      <c r="N21">
+        <v>0.9998789886811095</v>
+      </c>
+      <c r="O21">
+        <v>0.9998478586477667</v>
+      </c>
+      <c r="P21">
+        <v>0.9999331501052815</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999331501052815</v>
+      </c>
+      <c r="R21">
+        <v>0.9999602308173674</v>
+      </c>
+      <c r="S21">
+        <v>0.9999602308173674</v>
+      </c>
+      <c r="T21">
+        <v>1.000000658490218</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9985282582116822</v>
+      </c>
+      <c r="D22">
+        <v>1.000301487256203</v>
+      </c>
+      <c r="E22">
+        <v>0.9985282582116822</v>
+      </c>
+      <c r="F22">
+        <v>1.000487541693251</v>
+      </c>
+      <c r="G22">
+        <v>0.9992335994096785</v>
+      </c>
+      <c r="H22">
+        <v>1.000768522421017</v>
+      </c>
+      <c r="I22">
+        <v>1.000487541693251</v>
+      </c>
+      <c r="J22">
+        <v>1.000355728755776</v>
+      </c>
+      <c r="K22">
+        <v>1.000487541693251</v>
+      </c>
+      <c r="L22">
+        <v>1.000301487256203</v>
+      </c>
+      <c r="M22">
+        <v>0.9994148727339425</v>
+      </c>
+      <c r="N22">
+        <v>0.9994148727339425</v>
+      </c>
+      <c r="O22">
+        <v>0.9993544482925212</v>
+      </c>
+      <c r="P22">
+        <v>0.9997724290537121</v>
+      </c>
+      <c r="Q22">
+        <v>0.9997724290537122</v>
+      </c>
+      <c r="R22">
+        <v>0.999951207213597</v>
+      </c>
+      <c r="S22">
+        <v>0.999951207213597</v>
+      </c>
+      <c r="T22">
+        <v>0.999945856291268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9964125485411532</v>
+      </c>
+      <c r="D23">
+        <v>1.000634552709514</v>
+      </c>
+      <c r="E23">
+        <v>0.9964125485411532</v>
+      </c>
+      <c r="F23">
         <v>1.001369014802052</v>
       </c>
-      <c r="D19">
-        <v>0.9964125485411532</v>
-      </c>
-      <c r="E19">
+      <c r="G23">
+        <v>0.9981968788739306</v>
+      </c>
+      <c r="H23">
+        <v>1.001552250028467</v>
+      </c>
+      <c r="I23">
+        <v>1.001369014802052</v>
+      </c>
+      <c r="J23">
+        <v>1.000848678290446</v>
+      </c>
+      <c r="K23">
+        <v>1.001369014802052</v>
+      </c>
+      <c r="L23">
         <v>1.000634552709514</v>
       </c>
-      <c r="F19">
-        <v>1.001369014802052</v>
-      </c>
-      <c r="G19">
-        <v>1.001552250028467</v>
-      </c>
-      <c r="H19">
-        <v>0.9981968788739306</v>
-      </c>
-      <c r="I19">
-        <v>1.000848678290446</v>
-      </c>
-      <c r="J19">
-        <v>0.9964125485411532</v>
-      </c>
-      <c r="K19">
-        <v>1.001369014802052</v>
-      </c>
-      <c r="L19">
-        <v>1.000634552709514</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9985235506253337</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9985235506253337</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9984146600415326</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9994720386842398</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9994720386842398</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999462827136929</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9999462827136929</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9998356538742605</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Gamma2F-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW35.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9953908168869432</v>
+        <v>0.9539883536383288</v>
       </c>
       <c r="D3">
-        <v>1.001067014520995</v>
+        <v>1.012302593746397</v>
       </c>
       <c r="E3">
-        <v>0.9953908168869432</v>
+        <v>0.9539883536383288</v>
       </c>
       <c r="F3">
-        <v>1.00130579933954</v>
+        <v>1.010063480036022</v>
       </c>
       <c r="G3">
-        <v>0.9975202111000852</v>
+        <v>0.9741754002089317</v>
       </c>
       <c r="H3">
-        <v>1.002799887701161</v>
+        <v>1.033233409272337</v>
       </c>
       <c r="I3">
-        <v>1.00130579933954</v>
+        <v>1.010063480036022</v>
       </c>
       <c r="J3">
-        <v>1.001136630965781</v>
+        <v>1.011649788832853</v>
       </c>
       <c r="K3">
-        <v>1.00130579933954</v>
+        <v>1.010063480036022</v>
       </c>
       <c r="L3">
-        <v>1.001067014520995</v>
+        <v>1.012302593746397</v>
       </c>
       <c r="M3">
-        <v>0.9982289157039691</v>
+        <v>0.983145473692363</v>
       </c>
       <c r="N3">
-        <v>0.9982289157039691</v>
+        <v>0.983145473692363</v>
       </c>
       <c r="O3">
-        <v>0.9979926808360077</v>
+        <v>0.9801554491978859</v>
       </c>
       <c r="P3">
-        <v>0.9992545435824929</v>
+        <v>0.9921181424735828</v>
       </c>
       <c r="Q3">
-        <v>0.9992545435824929</v>
+        <v>0.9921181424735828</v>
       </c>
       <c r="R3">
-        <v>0.9997673575217547</v>
+        <v>0.9966044768641926</v>
       </c>
       <c r="S3">
-        <v>0.9997673575217547</v>
+        <v>0.9966044768641926</v>
       </c>
       <c r="T3">
-        <v>0.999870060085751</v>
+        <v>0.9992355042891449</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9911068652383997</v>
+        <v>0.9579118219800614</v>
       </c>
       <c r="D4">
-        <v>1.002062344294971</v>
+        <v>1.011264772933279</v>
       </c>
       <c r="E4">
-        <v>0.9911068652383997</v>
+        <v>0.9579118219800614</v>
       </c>
       <c r="F4">
-        <v>1.002512969841307</v>
+        <v>1.0091851304808</v>
       </c>
       <c r="G4">
-        <v>0.9952130645837153</v>
+        <v>0.9763702139461402</v>
       </c>
       <c r="H4">
-        <v>1.00541375040599</v>
+        <v>1.030435511379053</v>
       </c>
       <c r="I4">
-        <v>1.002512969841307</v>
+        <v>1.0091851304808</v>
       </c>
       <c r="J4">
-        <v>1.002193722179241</v>
+        <v>1.010658461489002</v>
       </c>
       <c r="K4">
-        <v>1.002512969841307</v>
+        <v>1.0091851304808</v>
       </c>
       <c r="L4">
-        <v>1.002062344294971</v>
+        <v>1.011264772933279</v>
       </c>
       <c r="M4">
-        <v>0.9965846047666855</v>
+        <v>0.9845882974566704</v>
       </c>
       <c r="N4">
-        <v>0.9965846047666855</v>
+        <v>0.9845882974566704</v>
       </c>
       <c r="O4">
-        <v>0.9961274247056955</v>
+        <v>0.9818489362864936</v>
       </c>
       <c r="P4">
-        <v>0.998560726458226</v>
+        <v>0.9927872417980469</v>
       </c>
       <c r="Q4">
-        <v>0.998560726458226</v>
+        <v>0.9927872417980469</v>
       </c>
       <c r="R4">
-        <v>0.9995487873039963</v>
+        <v>0.9968867139687352</v>
       </c>
       <c r="S4">
-        <v>0.9995487873039963</v>
+        <v>0.9968867139687352</v>
       </c>
       <c r="T4">
-        <v>0.9997504527572708</v>
+        <v>0.9993043187013892</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9829669993525452</v>
+        <v>0.9465310627762804</v>
       </c>
       <c r="D5">
-        <v>1.003957160159217</v>
+        <v>1.014279936145553</v>
       </c>
       <c r="E5">
-        <v>0.9829669993525452</v>
+        <v>0.9465310627762804</v>
       </c>
       <c r="F5">
-        <v>1.004800201666305</v>
+        <v>1.011724355902966</v>
       </c>
       <c r="G5">
-        <v>0.9908269578915755</v>
+        <v>0.9700006503773578</v>
       </c>
       <c r="H5">
-        <v>1.010391842377361</v>
+        <v>1.038566611293799</v>
       </c>
       <c r="I5">
-        <v>1.004800201666305</v>
+        <v>1.011724355902966</v>
       </c>
       <c r="J5">
-        <v>1.004202945205611</v>
+        <v>1.013534867493262</v>
       </c>
       <c r="K5">
-        <v>1.004800201666305</v>
+        <v>1.011724355902966</v>
       </c>
       <c r="L5">
-        <v>1.003957160159217</v>
+        <v>1.014279936145553</v>
       </c>
       <c r="M5">
-        <v>0.9934620797558813</v>
+        <v>0.9804054994609167</v>
       </c>
       <c r="N5">
-        <v>0.9934620797558813</v>
+        <v>0.9804054994609167</v>
       </c>
       <c r="O5">
-        <v>0.9925837058011128</v>
+        <v>0.9769372164330637</v>
       </c>
       <c r="P5">
-        <v>0.9972414537260227</v>
+        <v>0.990845118274933</v>
       </c>
       <c r="Q5">
-        <v>0.9972414537260227</v>
+        <v>0.990845118274933</v>
       </c>
       <c r="R5">
-        <v>0.9991311407110933</v>
+        <v>0.9960649276819411</v>
       </c>
       <c r="S5">
-        <v>0.9991311407110933</v>
+        <v>0.9960649276819411</v>
       </c>
       <c r="T5">
-        <v>0.9995243511087694</v>
+        <v>0.9991062473315364</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9750248249793178</v>
+        <v>0.9395608337499998</v>
       </c>
       <c r="D6">
-        <v>1.005807382282742</v>
+        <v>1.016133809261364</v>
       </c>
       <c r="E6">
-        <v>0.9750248249793178</v>
+        <v>0.9395608337499998</v>
       </c>
       <c r="F6">
-        <v>1.007029308804809</v>
+        <v>1.013266549829546</v>
       </c>
       <c r="G6">
-        <v>0.9865464487442815</v>
+        <v>0.9660949003409093</v>
       </c>
       <c r="H6">
-        <v>1.015253625805075</v>
+        <v>1.043569629204546</v>
       </c>
       <c r="I6">
-        <v>1.007029308804809</v>
+        <v>1.013266549829546</v>
       </c>
       <c r="J6">
-        <v>1.006163637324672</v>
+        <v>1.015297865397728</v>
       </c>
       <c r="K6">
-        <v>1.007029308804809</v>
+        <v>1.013266549829546</v>
       </c>
       <c r="L6">
-        <v>1.005807382282742</v>
+        <v>1.016133809261364</v>
       </c>
       <c r="M6">
-        <v>0.9904161036310297</v>
+        <v>0.977847321505682</v>
       </c>
       <c r="N6">
-        <v>0.9904161036310297</v>
+        <v>0.977847321505682</v>
       </c>
       <c r="O6">
-        <v>0.9891262186687803</v>
+        <v>0.9739298477840911</v>
       </c>
       <c r="P6">
-        <v>0.9959538386889563</v>
+        <v>0.9896537309469698</v>
       </c>
       <c r="Q6">
-        <v>0.9959538386889563</v>
+        <v>0.9896537309469698</v>
       </c>
       <c r="R6">
-        <v>0.9987227062179196</v>
+        <v>0.9955569356676138</v>
       </c>
       <c r="S6">
-        <v>0.9987227062179196</v>
+        <v>0.9955569356676138</v>
       </c>
       <c r="T6">
-        <v>0.999304204656816</v>
+        <v>0.9989872646306822</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.999689146492388</v>
+        <v>0.9761130924706145</v>
       </c>
       <c r="D7">
-        <v>1.00008519259864</v>
+        <v>1.0077165499365</v>
       </c>
       <c r="E7">
-        <v>0.999689146492388</v>
+        <v>0.9761130924706145</v>
       </c>
       <c r="F7">
-        <v>1.000064249284991</v>
+        <v>1.002831043090864</v>
       </c>
       <c r="G7">
-        <v>0.9998241836358878</v>
+        <v>0.9857315556066738</v>
       </c>
       <c r="H7">
-        <v>1.000231167806696</v>
+        <v>1.02150805177578</v>
       </c>
       <c r="I7">
-        <v>1.000064249284991</v>
+        <v>1.002831043090864</v>
       </c>
       <c r="J7">
-        <v>1.000079086271223</v>
+        <v>1.006292203088813</v>
       </c>
       <c r="K7">
-        <v>1.000064249284991</v>
+        <v>1.002831043090864</v>
       </c>
       <c r="L7">
-        <v>1.00008519259864</v>
+        <v>1.0077165499365</v>
       </c>
       <c r="M7">
-        <v>0.9998871695455139</v>
+        <v>0.9919148212035575</v>
       </c>
       <c r="N7">
-        <v>0.9998871695455139</v>
+        <v>0.9919148212035575</v>
       </c>
       <c r="O7">
-        <v>0.9998661742423053</v>
+        <v>0.9898537326712629</v>
       </c>
       <c r="P7">
-        <v>0.9999461961253395</v>
+        <v>0.9955535618326596</v>
       </c>
       <c r="Q7">
-        <v>0.9999461961253395</v>
+        <v>0.9955535618326596</v>
       </c>
       <c r="R7">
-        <v>0.9999757094152524</v>
+        <v>0.9973729321472107</v>
       </c>
       <c r="S7">
-        <v>0.9999757094152524</v>
+        <v>0.9973729321472107</v>
       </c>
       <c r="T7">
-        <v>0.9999955043483041</v>
+        <v>1.000032082661541</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9992072424501887</v>
+        <v>0.975103083635018</v>
       </c>
       <c r="D8">
-        <v>1.000216912061246</v>
+        <v>1.007990149075786</v>
       </c>
       <c r="E8">
-        <v>0.9992072424501887</v>
+        <v>0.975103083635018</v>
       </c>
       <c r="F8">
-        <v>1.000164486776744</v>
+        <v>1.003045570766801</v>
       </c>
       <c r="G8">
-        <v>0.9995518507136781</v>
+        <v>0.9851623799153966</v>
       </c>
       <c r="H8">
-        <v>1.0005884162085</v>
+        <v>1.022248901073182</v>
       </c>
       <c r="I8">
-        <v>1.000164486776744</v>
+        <v>1.003045570766801</v>
       </c>
       <c r="J8">
-        <v>1.00020162757515</v>
+        <v>1.006548580035651</v>
       </c>
       <c r="K8">
-        <v>1.000164486776744</v>
+        <v>1.003045570766801</v>
       </c>
       <c r="L8">
-        <v>1.000216912061246</v>
+        <v>1.007990149075786</v>
       </c>
       <c r="M8">
-        <v>0.9997120772557171</v>
+        <v>0.9915466163554021</v>
       </c>
       <c r="N8">
-        <v>0.9997120772557171</v>
+        <v>0.9915466163554021</v>
       </c>
       <c r="O8">
-        <v>0.9996586684083707</v>
+        <v>0.9894185375420669</v>
       </c>
       <c r="P8">
-        <v>0.9998628804293928</v>
+        <v>0.9953796011592017</v>
       </c>
       <c r="Q8">
-        <v>0.9998628804293928</v>
+        <v>0.9953796011592017</v>
       </c>
       <c r="R8">
-        <v>0.9999382820162306</v>
+        <v>0.9972960935611014</v>
       </c>
       <c r="S8">
-        <v>0.9999382820162306</v>
+        <v>0.9972960935611014</v>
       </c>
       <c r="T8">
-        <v>0.9999884226309176</v>
+        <v>1.000016444083639</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9988887586557398</v>
+        <v>0.9742481037456008</v>
       </c>
       <c r="D9">
-        <v>1.000303057324842</v>
+        <v>1.008227283569963</v>
       </c>
       <c r="E9">
-        <v>0.9988887586557398</v>
+        <v>0.9742481037456008</v>
       </c>
       <c r="F9">
-        <v>1.000232364897312</v>
+        <v>1.003217214455445</v>
       </c>
       <c r="G9">
-        <v>0.999372456281335</v>
+        <v>0.9846769845304443</v>
       </c>
       <c r="H9">
-        <v>1.000821616146706</v>
+        <v>1.022893734135812</v>
       </c>
       <c r="I9">
-        <v>1.000232364897312</v>
+        <v>1.003217214455445</v>
       </c>
       <c r="J9">
-        <v>1.00028244590259</v>
+        <v>1.006766620830977</v>
       </c>
       <c r="K9">
-        <v>1.000232364897312</v>
+        <v>1.003217214455445</v>
       </c>
       <c r="L9">
-        <v>1.000303057324842</v>
+        <v>1.008227283569963</v>
       </c>
       <c r="M9">
-        <v>0.999595907990291</v>
+        <v>0.9912376936577819</v>
       </c>
       <c r="N9">
-        <v>0.999595907990291</v>
+        <v>0.9912376936577819</v>
       </c>
       <c r="O9">
-        <v>0.9995214240873057</v>
+        <v>0.9890507906153361</v>
       </c>
       <c r="P9">
-        <v>0.9998080602926311</v>
+        <v>0.995230867257003</v>
       </c>
       <c r="Q9">
-        <v>0.9998080602926311</v>
+        <v>0.995230867257003</v>
       </c>
       <c r="R9">
-        <v>0.9999141364438013</v>
+        <v>0.9972274540566137</v>
       </c>
       <c r="S9">
-        <v>0.9999141364438013</v>
+        <v>0.9972274540566137</v>
       </c>
       <c r="T9">
-        <v>0.9999834498680874</v>
+        <v>1.000004990211374</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9976040810530584</v>
+        <v>0.9722100968166075</v>
       </c>
       <c r="D10">
-        <v>1.000653561139002</v>
+        <v>1.008778933458521</v>
       </c>
       <c r="E10">
-        <v>0.9976040810530584</v>
+        <v>0.9722100968166075</v>
       </c>
       <c r="F10">
-        <v>1.000500728233338</v>
+        <v>1.003650848592917</v>
       </c>
       <c r="G10">
-        <v>0.9986468747643316</v>
+        <v>0.983528768446201</v>
       </c>
       <c r="H10">
-        <v>1.001771940093733</v>
+        <v>1.02438728068197</v>
       </c>
       <c r="I10">
-        <v>1.000500728233338</v>
+        <v>1.003650848592917</v>
       </c>
       <c r="J10">
-        <v>1.000609004170097</v>
+        <v>1.007283863588037</v>
       </c>
       <c r="K10">
-        <v>1.000500728233338</v>
+        <v>1.003650848592917</v>
       </c>
       <c r="L10">
-        <v>1.000653561139002</v>
+        <v>1.008778933458521</v>
       </c>
       <c r="M10">
-        <v>0.9991288210960304</v>
+        <v>0.9904945151375641</v>
       </c>
       <c r="N10">
-        <v>0.9991288210960304</v>
+        <v>0.9904945151375641</v>
       </c>
       <c r="O10">
-        <v>0.9989681723187974</v>
+        <v>0.9881725995737765</v>
       </c>
       <c r="P10">
-        <v>0.9995861234751331</v>
+        <v>0.9948799596226818</v>
       </c>
       <c r="Q10">
-        <v>0.9995861234751331</v>
+        <v>0.9948799596226818</v>
       </c>
       <c r="R10">
-        <v>0.9998147746646844</v>
+        <v>0.9970726818652407</v>
       </c>
       <c r="S10">
-        <v>0.9998147746646844</v>
+        <v>0.9970726818652407</v>
       </c>
       <c r="T10">
-        <v>0.9999643649089268</v>
+        <v>0.9999732985973755</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9960229464897453</v>
+        <v>0.9949770784690625</v>
       </c>
       <c r="D11">
-        <v>1.001082670763185</v>
+        <v>1.00116990707096</v>
       </c>
       <c r="E11">
-        <v>0.9960229464897453</v>
+        <v>0.9949770784690625</v>
       </c>
       <c r="F11">
-        <v>1.000835127713038</v>
+        <v>1.00141020969898</v>
       </c>
       <c r="G11">
-        <v>0.9977553299614972</v>
+        <v>0.9972930060221205</v>
       </c>
       <c r="H11">
-        <v>1.002934274807662</v>
+        <v>1.003073978278884</v>
       </c>
       <c r="I11">
-        <v>1.000835127713038</v>
+        <v>1.00141020969898</v>
       </c>
       <c r="J11">
-        <v>1.001010500472246</v>
+        <v>1.001239965724992</v>
       </c>
       <c r="K11">
-        <v>1.000835127713038</v>
+        <v>1.00141020969898</v>
       </c>
       <c r="L11">
-        <v>1.001082670763185</v>
+        <v>1.00116990707096</v>
       </c>
       <c r="M11">
-        <v>0.998552808626465</v>
+        <v>0.9980734927700112</v>
       </c>
       <c r="N11">
-        <v>0.998552808626465</v>
+        <v>0.9980734927700112</v>
       </c>
       <c r="O11">
-        <v>0.998286982404809</v>
+        <v>0.9978133305207143</v>
       </c>
       <c r="P11">
-        <v>0.9993135816553228</v>
+        <v>0.9991857317463341</v>
       </c>
       <c r="Q11">
-        <v>0.9993135816553226</v>
+        <v>0.9991857317463341</v>
       </c>
       <c r="R11">
-        <v>0.9996939681697515</v>
+        <v>0.9997418512344955</v>
       </c>
       <c r="S11">
-        <v>0.9996939681697515</v>
+        <v>0.9997418512344955</v>
       </c>
       <c r="T11">
-        <v>0.9999401417012287</v>
+        <v>0.9998606908775</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.034154683619237</v>
+        <v>0.997609360497256</v>
       </c>
       <c r="D12">
-        <v>0.9898418703008088</v>
+        <v>1.000564139581243</v>
       </c>
       <c r="E12">
-        <v>1.034154683619237</v>
+        <v>0.997609360497256</v>
       </c>
       <c r="F12">
-        <v>0.9943763474419866</v>
+        <v>1.000657994346738</v>
       </c>
       <c r="G12">
-        <v>1.019834481373462</v>
+        <v>0.9987068690116686</v>
       </c>
       <c r="H12">
-        <v>0.9720479562981402</v>
+        <v>1.001486493298974</v>
       </c>
       <c r="I12">
-        <v>0.9943763474419866</v>
+        <v>1.000657994346738</v>
       </c>
       <c r="J12">
-        <v>0.9911638800032031</v>
+        <v>1.000591502174121</v>
       </c>
       <c r="K12">
-        <v>0.9943763474419866</v>
+        <v>1.000657994346738</v>
       </c>
       <c r="L12">
-        <v>0.9898418703008088</v>
+        <v>1.000564139581243</v>
       </c>
       <c r="M12">
-        <v>1.011998276960023</v>
+        <v>0.9990867500392493</v>
       </c>
       <c r="N12">
-        <v>1.011998276960023</v>
+        <v>0.9990867500392493</v>
       </c>
       <c r="O12">
-        <v>1.014610345097836</v>
+        <v>0.9989601230300558</v>
       </c>
       <c r="P12">
-        <v>1.006124300454011</v>
+        <v>0.9996104981417453</v>
       </c>
       <c r="Q12">
-        <v>1.006124300454011</v>
+        <v>0.9996104981417453</v>
       </c>
       <c r="R12">
-        <v>1.003187312201005</v>
+        <v>0.9998723721929934</v>
       </c>
       <c r="S12">
-        <v>1.003187312201005</v>
+        <v>0.9998723721929934</v>
       </c>
       <c r="T12">
-        <v>1.00023653650614</v>
+        <v>0.999936059818333</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.010270937435021</v>
+        <v>0.9919309284855548</v>
       </c>
       <c r="D13">
-        <v>0.99812378356514</v>
+        <v>1.00189297336927</v>
       </c>
       <c r="E13">
-        <v>1.010270937435021</v>
+        <v>0.9919309284855548</v>
       </c>
       <c r="F13">
-        <v>0.9961875332836595</v>
+        <v>1.002240994494289</v>
       </c>
       <c r="G13">
-        <v>1.005200911711278</v>
+        <v>0.9956425512238504</v>
       </c>
       <c r="H13">
-        <v>0.9953655576678087</v>
+        <v>1.004981633521504</v>
       </c>
       <c r="I13">
-        <v>0.9961875332836595</v>
+        <v>1.002240994494289</v>
       </c>
       <c r="J13">
-        <v>0.9975592800789448</v>
+        <v>1.00199443725524</v>
       </c>
       <c r="K13">
-        <v>0.9961875332836595</v>
+        <v>1.002240994494289</v>
       </c>
       <c r="L13">
-        <v>0.99812378356514</v>
+        <v>1.00189297336927</v>
       </c>
       <c r="M13">
-        <v>1.00419736050008</v>
+        <v>0.9969119509274122</v>
       </c>
       <c r="N13">
-        <v>1.00419736050008</v>
+        <v>0.9969119509274122</v>
       </c>
       <c r="O13">
-        <v>1.00453187757048</v>
+        <v>0.9964888176928915</v>
       </c>
       <c r="P13">
-        <v>1.001527418094607</v>
+        <v>0.9986882987830378</v>
       </c>
       <c r="Q13">
-        <v>1.001527418094607</v>
+        <v>0.9986882987830378</v>
       </c>
       <c r="R13">
-        <v>1.00019244689187</v>
+        <v>0.9995764727108505</v>
       </c>
       <c r="S13">
-        <v>1.00019244689187</v>
+        <v>0.9995764727108505</v>
       </c>
       <c r="T13">
-        <v>1.000451333956975</v>
+        <v>0.9997805863916179</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.03404051740268</v>
+        <v>0.987166628392717</v>
       </c>
       <c r="D14">
-        <v>0.9897846227880728</v>
+        <v>1.00298475531632</v>
       </c>
       <c r="E14">
-        <v>1.03404051740268</v>
+        <v>0.987166628392717</v>
       </c>
       <c r="F14">
-        <v>0.9945593124844816</v>
+        <v>1.00361078917888</v>
       </c>
       <c r="G14">
-        <v>1.019827281522938</v>
+        <v>0.9930865312701653</v>
       </c>
       <c r="H14">
-        <v>0.9718495272863409</v>
+        <v>1.007840110117795</v>
       </c>
       <c r="I14">
-        <v>0.9945593124844816</v>
+        <v>1.00361078917888</v>
       </c>
       <c r="J14">
-        <v>0.9911766633103142</v>
+        <v>1.003167271339865</v>
       </c>
       <c r="K14">
-        <v>0.9945593124844816</v>
+        <v>1.00361078917888</v>
       </c>
       <c r="L14">
-        <v>0.9897846227880728</v>
+        <v>1.00298475531632</v>
       </c>
       <c r="M14">
-        <v>1.011912570095376</v>
+        <v>0.9950756918545187</v>
       </c>
       <c r="N14">
-        <v>1.011912570095376</v>
+        <v>0.9950756918545187</v>
       </c>
       <c r="O14">
-        <v>1.014550807237897</v>
+        <v>0.9944126383264008</v>
       </c>
       <c r="P14">
-        <v>1.006128150891745</v>
+        <v>0.9979207242959726</v>
       </c>
       <c r="Q14">
-        <v>1.006128150891745</v>
+        <v>0.9979207242959726</v>
       </c>
       <c r="R14">
-        <v>1.003235941289929</v>
+        <v>0.9993432405166994</v>
       </c>
       <c r="S14">
-        <v>1.003235941289929</v>
+        <v>0.9993432405166994</v>
       </c>
       <c r="T14">
-        <v>1.000206320799138</v>
+        <v>0.9996426809359572</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.010317149885441</v>
+        <v>0.9953908168869432</v>
       </c>
       <c r="D15">
-        <v>0.9981479088090115</v>
+        <v>1.001067014520995</v>
       </c>
       <c r="E15">
-        <v>1.010317149885441</v>
+        <v>0.9953908168869432</v>
       </c>
       <c r="F15">
-        <v>0.9961117454867215</v>
+        <v>1.00130579933954</v>
       </c>
       <c r="G15">
-        <v>1.005203217176753</v>
+        <v>0.9975202111000852</v>
       </c>
       <c r="H15">
-        <v>0.9954489295334096</v>
+        <v>1.002799887701161</v>
       </c>
       <c r="I15">
-        <v>0.9961117454867215</v>
+        <v>1.00130579933954</v>
       </c>
       <c r="J15">
-        <v>0.9975542756302054</v>
+        <v>1.001136630965781</v>
       </c>
       <c r="K15">
-        <v>0.9961117454867215</v>
+        <v>1.00130579933954</v>
       </c>
       <c r="L15">
-        <v>0.9981479088090115</v>
+        <v>1.001067014520995</v>
       </c>
       <c r="M15">
-        <v>1.004232529347227</v>
+        <v>0.9982289157039691</v>
       </c>
       <c r="N15">
-        <v>1.004232529347227</v>
+        <v>0.9982289157039691</v>
       </c>
       <c r="O15">
-        <v>1.004556091957069</v>
+        <v>0.9979926808360077</v>
       </c>
       <c r="P15">
-        <v>1.001525601393725</v>
+        <v>0.9992545435824929</v>
       </c>
       <c r="Q15">
-        <v>1.001525601393725</v>
+        <v>0.9992545435824929</v>
       </c>
       <c r="R15">
-        <v>1.000172137416974</v>
+        <v>0.9997673575217547</v>
       </c>
       <c r="S15">
-        <v>1.000172137416974</v>
+        <v>0.9997673575217547</v>
       </c>
       <c r="T15">
-        <v>1.000463871086924</v>
+        <v>0.999870060085751</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9103443970358012</v>
+        <v>0.9911068652383997</v>
       </c>
       <c r="D16">
-        <v>1.020938812053316</v>
+        <v>1.002062344294971</v>
       </c>
       <c r="E16">
-        <v>0.9103443970358012</v>
+        <v>0.9911068652383997</v>
       </c>
       <c r="F16">
-        <v>1.025069044358937</v>
+        <v>1.002512969841307</v>
       </c>
       <c r="G16">
-        <v>0.9516452745890305</v>
+        <v>0.9952130645837153</v>
       </c>
       <c r="H16">
-        <v>1.055050114751835</v>
+        <v>1.00541375040599</v>
       </c>
       <c r="I16">
-        <v>1.025069044358937</v>
+        <v>1.002512969841307</v>
       </c>
       <c r="J16">
-        <v>1.022142963303914</v>
+        <v>1.002193722179241</v>
       </c>
       <c r="K16">
-        <v>1.025069044358937</v>
+        <v>1.002512969841307</v>
       </c>
       <c r="L16">
-        <v>1.020938812053316</v>
+        <v>1.002062344294971</v>
       </c>
       <c r="M16">
-        <v>0.9656416045445584</v>
+        <v>0.9965846047666855</v>
       </c>
       <c r="N16">
-        <v>0.9656416045445584</v>
+        <v>0.9965846047666855</v>
       </c>
       <c r="O16">
-        <v>0.960976161226049</v>
+        <v>0.9961274247056955</v>
       </c>
       <c r="P16">
-        <v>0.9854507511493514</v>
+        <v>0.998560726458226</v>
       </c>
       <c r="Q16">
-        <v>0.9854507511493514</v>
+        <v>0.998560726458226</v>
       </c>
       <c r="R16">
-        <v>0.9953553244517479</v>
+        <v>0.9995487873039963</v>
       </c>
       <c r="S16">
-        <v>0.9953553244517479</v>
+        <v>0.9995487873039963</v>
       </c>
       <c r="T16">
-        <v>0.997531767682139</v>
+        <v>0.9997504527572708</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9272312764211944</v>
+        <v>0.9829669993525452</v>
       </c>
       <c r="D17">
-        <v>1.017440440829219</v>
+        <v>1.003957160159217</v>
       </c>
       <c r="E17">
-        <v>0.9272312764211944</v>
+        <v>0.9829669993525452</v>
       </c>
       <c r="F17">
-        <v>1.019545301577338</v>
+        <v>1.004800201666305</v>
       </c>
       <c r="G17">
-        <v>0.9604643287484512</v>
+        <v>0.9908269578915755</v>
       </c>
       <c r="H17">
-        <v>1.046106910180834</v>
+        <v>1.010391842377361</v>
       </c>
       <c r="I17">
-        <v>1.019545301577338</v>
+        <v>1.004800201666305</v>
       </c>
       <c r="J17">
-        <v>1.018054103661542</v>
+        <v>1.004202945205611</v>
       </c>
       <c r="K17">
-        <v>1.019545301577338</v>
+        <v>1.004800201666305</v>
       </c>
       <c r="L17">
-        <v>1.017440440829219</v>
+        <v>1.003957160159217</v>
       </c>
       <c r="M17">
-        <v>0.9723358586252069</v>
+        <v>0.9934620797558813</v>
       </c>
       <c r="N17">
-        <v>0.9723358586252069</v>
+        <v>0.9934620797558813</v>
       </c>
       <c r="O17">
-        <v>0.9683786819996216</v>
+        <v>0.9925837058011128</v>
       </c>
       <c r="P17">
-        <v>0.9880723396092507</v>
+        <v>0.9972414537260227</v>
       </c>
       <c r="Q17">
-        <v>0.9880723396092507</v>
+        <v>0.9972414537260227</v>
       </c>
       <c r="R17">
-        <v>0.9959405801012725</v>
+        <v>0.9991311407110933</v>
       </c>
       <c r="S17">
-        <v>0.9959405801012725</v>
+        <v>0.9991311407110933</v>
       </c>
       <c r="T17">
-        <v>0.9981403935697633</v>
+        <v>0.9995243511087694</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9611604292391189</v>
+        <v>0.9750248249793178</v>
       </c>
       <c r="D18">
-        <v>1.010392141972599</v>
+        <v>1.005807382282742</v>
       </c>
       <c r="E18">
-        <v>0.9611604292391189</v>
+        <v>0.9750248249793178</v>
       </c>
       <c r="F18">
-        <v>1.008481834207638</v>
+        <v>1.007029308804809</v>
       </c>
       <c r="G18">
-        <v>0.9781961377037887</v>
+        <v>0.9865464487442815</v>
       </c>
       <c r="H18">
-        <v>1.028076246918424</v>
+        <v>1.015253625805075</v>
       </c>
       <c r="I18">
-        <v>1.008481834207638</v>
+        <v>1.007029308804809</v>
       </c>
       <c r="J18">
-        <v>1.009835201528638</v>
+        <v>1.006163637324672</v>
       </c>
       <c r="K18">
-        <v>1.008481834207638</v>
+        <v>1.007029308804809</v>
       </c>
       <c r="L18">
-        <v>1.010392141972599</v>
+        <v>1.005807382282742</v>
       </c>
       <c r="M18">
-        <v>0.9857762856058589</v>
+        <v>0.9904161036310297</v>
       </c>
       <c r="N18">
-        <v>0.9857762856058589</v>
+        <v>0.9904161036310297</v>
       </c>
       <c r="O18">
-        <v>0.9832495696385021</v>
+        <v>0.9891262186687803</v>
       </c>
       <c r="P18">
-        <v>0.9933448018064519</v>
+        <v>0.9959538386889563</v>
       </c>
       <c r="Q18">
-        <v>0.9933448018064519</v>
+        <v>0.9959538386889563</v>
       </c>
       <c r="R18">
-        <v>0.9971290599067484</v>
+        <v>0.9987227062179196</v>
       </c>
       <c r="S18">
-        <v>0.9971290599067484</v>
+        <v>0.9987227062179196</v>
       </c>
       <c r="T18">
-        <v>0.9993569985950345</v>
+        <v>0.999304204656816</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9578904762591284</v>
+        <v>0.999689146492388</v>
       </c>
       <c r="D19">
-        <v>1.011492402476594</v>
+        <v>1.00008519259864</v>
       </c>
       <c r="E19">
-        <v>0.9578904762591284</v>
+        <v>0.999689146492388</v>
       </c>
       <c r="F19">
-        <v>1.008790338601167</v>
+        <v>1.000064249284991</v>
       </c>
       <c r="G19">
-        <v>0.976214430697413</v>
+        <v>0.9998241836358878</v>
       </c>
       <c r="H19">
-        <v>1.031161079451894</v>
+        <v>1.000231167806696</v>
       </c>
       <c r="I19">
-        <v>1.008790338601167</v>
+        <v>1.000064249284991</v>
       </c>
       <c r="J19">
-        <v>1.010704625939742</v>
+        <v>1.000079086271223</v>
       </c>
       <c r="K19">
-        <v>1.008790338601167</v>
+        <v>1.000064249284991</v>
       </c>
       <c r="L19">
-        <v>1.011492402476594</v>
+        <v>1.00008519259864</v>
       </c>
       <c r="M19">
-        <v>0.9846914393678612</v>
+        <v>0.9998871695455139</v>
       </c>
       <c r="N19">
-        <v>0.9846914393678612</v>
+        <v>0.9998871695455139</v>
       </c>
       <c r="O19">
-        <v>0.9818657698110451</v>
+        <v>0.9998661742423053</v>
       </c>
       <c r="P19">
-        <v>0.9927244057789633</v>
+        <v>0.9999461961253395</v>
       </c>
       <c r="Q19">
-        <v>0.9927244057789633</v>
+        <v>0.9999461961253395</v>
       </c>
       <c r="R19">
-        <v>0.9967408889845142</v>
+        <v>0.9999757094152524</v>
       </c>
       <c r="S19">
-        <v>0.9967408889845142</v>
+        <v>0.9999757094152524</v>
       </c>
       <c r="T19">
-        <v>0.9993755589043229</v>
+        <v>0.9999955043483041</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999699447201429</v>
+        <v>0.9992072424501887</v>
       </c>
       <c r="D20">
-        <v>0.9999987423794906</v>
+        <v>1.000216912061246</v>
       </c>
       <c r="E20">
-        <v>0.9999699447201429</v>
+        <v>0.9992072424501887</v>
       </c>
       <c r="F20">
-        <v>1.000023300704134</v>
+        <v>1.000164486776744</v>
       </c>
       <c r="G20">
-        <v>0.9999891531442262</v>
+        <v>0.9995518507136781</v>
       </c>
       <c r="H20">
-        <v>0.9999919667589082</v>
+        <v>1.0005884162085</v>
       </c>
       <c r="I20">
-        <v>1.000023300704134</v>
+        <v>1.000164486776744</v>
       </c>
       <c r="J20">
-        <v>1.00000590186749</v>
+        <v>1.00020162757515</v>
       </c>
       <c r="K20">
-        <v>1.000023300704134</v>
+        <v>1.000164486776744</v>
       </c>
       <c r="L20">
-        <v>0.9999987423794906</v>
+        <v>1.000216912061246</v>
       </c>
       <c r="M20">
-        <v>0.9999843435498168</v>
+        <v>0.9997120772557171</v>
       </c>
       <c r="N20">
-        <v>0.9999843435498168</v>
+        <v>0.9997120772557171</v>
       </c>
       <c r="O20">
-        <v>0.9999859467479532</v>
+        <v>0.9996586684083707</v>
       </c>
       <c r="P20">
-        <v>0.9999973292679224</v>
+        <v>0.9998628804293928</v>
       </c>
       <c r="Q20">
-        <v>0.9999973292679224</v>
+        <v>0.9998628804293928</v>
       </c>
       <c r="R20">
-        <v>1.000003822126975</v>
+        <v>0.9999382820162306</v>
       </c>
       <c r="S20">
-        <v>1.000003822126975</v>
+        <v>0.9999382820162306</v>
       </c>
       <c r="T20">
-        <v>0.9999965015957321</v>
+        <v>0.9999884226309176</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9996416685529684</v>
+        <v>0.9988887586557398</v>
       </c>
       <c r="D21">
-        <v>1.000116308809251</v>
+        <v>1.000303057324842</v>
       </c>
       <c r="E21">
-        <v>0.9996416685529684</v>
+        <v>0.9988887586557398</v>
       </c>
       <c r="F21">
-        <v>1.000041472953625</v>
+        <v>1.000232364897312</v>
       </c>
       <c r="G21">
-        <v>0.9997855985810814</v>
+        <v>0.999372456281335</v>
       </c>
       <c r="H21">
-        <v>1.000324411007555</v>
+        <v>1.000821616146706</v>
       </c>
       <c r="I21">
-        <v>1.000041472953625</v>
+        <v>1.000232364897312</v>
       </c>
       <c r="J21">
-        <v>1.000094491036824</v>
+        <v>1.00028244590259</v>
       </c>
       <c r="K21">
-        <v>1.000041472953625</v>
+        <v>1.000232364897312</v>
       </c>
       <c r="L21">
-        <v>1.000116308809251</v>
+        <v>1.000303057324842</v>
       </c>
       <c r="M21">
-        <v>0.9998789886811095</v>
+        <v>0.999595907990291</v>
       </c>
       <c r="N21">
-        <v>0.9998789886811095</v>
+        <v>0.999595907990291</v>
       </c>
       <c r="O21">
-        <v>0.9998478586477667</v>
+        <v>0.9995214240873057</v>
       </c>
       <c r="P21">
-        <v>0.9999331501052815</v>
+        <v>0.9998080602926311</v>
       </c>
       <c r="Q21">
-        <v>0.9999331501052815</v>
+        <v>0.9998080602926311</v>
       </c>
       <c r="R21">
-        <v>0.9999602308173674</v>
+        <v>0.9999141364438013</v>
       </c>
       <c r="S21">
-        <v>0.9999602308173674</v>
+        <v>0.9999141364438013</v>
       </c>
       <c r="T21">
-        <v>1.000000658490218</v>
+        <v>0.9999834498680874</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9985282582116822</v>
+        <v>0.9976040810530584</v>
       </c>
       <c r="D22">
-        <v>1.000301487256203</v>
+        <v>1.000653561139002</v>
       </c>
       <c r="E22">
-        <v>0.9985282582116822</v>
+        <v>0.9976040810530584</v>
       </c>
       <c r="F22">
-        <v>1.000487541693251</v>
+        <v>1.000500728233338</v>
       </c>
       <c r="G22">
-        <v>0.9992335994096785</v>
+        <v>0.9986468747643316</v>
       </c>
       <c r="H22">
-        <v>1.000768522421017</v>
+        <v>1.001771940093733</v>
       </c>
       <c r="I22">
-        <v>1.000487541693251</v>
+        <v>1.000500728233338</v>
       </c>
       <c r="J22">
-        <v>1.000355728755776</v>
+        <v>1.000609004170097</v>
       </c>
       <c r="K22">
-        <v>1.000487541693251</v>
+        <v>1.000500728233338</v>
       </c>
       <c r="L22">
-        <v>1.000301487256203</v>
+        <v>1.000653561139002</v>
       </c>
       <c r="M22">
-        <v>0.9994148727339425</v>
+        <v>0.9991288210960304</v>
       </c>
       <c r="N22">
-        <v>0.9994148727339425</v>
+        <v>0.9991288210960304</v>
       </c>
       <c r="O22">
-        <v>0.9993544482925212</v>
+        <v>0.9989681723187974</v>
       </c>
       <c r="P22">
-        <v>0.9997724290537121</v>
+        <v>0.9995861234751331</v>
       </c>
       <c r="Q22">
-        <v>0.9997724290537122</v>
+        <v>0.9995861234751331</v>
       </c>
       <c r="R22">
-        <v>0.999951207213597</v>
+        <v>0.9998147746646844</v>
       </c>
       <c r="S22">
-        <v>0.999951207213597</v>
+        <v>0.9998147746646844</v>
       </c>
       <c r="T22">
-        <v>0.999945856291268</v>
+        <v>0.9999643649089268</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9960229464897453</v>
+      </c>
+      <c r="D23">
+        <v>1.001082670763185</v>
+      </c>
+      <c r="E23">
+        <v>0.9960229464897453</v>
+      </c>
+      <c r="F23">
+        <v>1.000835127713038</v>
+      </c>
+      <c r="G23">
+        <v>0.9977553299614972</v>
+      </c>
+      <c r="H23">
+        <v>1.002934274807662</v>
+      </c>
+      <c r="I23">
+        <v>1.000835127713038</v>
+      </c>
+      <c r="J23">
+        <v>1.001010500472246</v>
+      </c>
+      <c r="K23">
+        <v>1.000835127713038</v>
+      </c>
+      <c r="L23">
+        <v>1.001082670763185</v>
+      </c>
+      <c r="M23">
+        <v>0.998552808626465</v>
+      </c>
+      <c r="N23">
+        <v>0.998552808626465</v>
+      </c>
+      <c r="O23">
+        <v>0.998286982404809</v>
+      </c>
+      <c r="P23">
+        <v>0.9993135816553228</v>
+      </c>
+      <c r="Q23">
+        <v>0.9993135816553226</v>
+      </c>
+      <c r="R23">
+        <v>0.9996939681697515</v>
+      </c>
+      <c r="S23">
+        <v>0.9996939681697515</v>
+      </c>
+      <c r="T23">
+        <v>0.9999401417012287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.034154683619237</v>
+      </c>
+      <c r="D24">
+        <v>0.9898418703008088</v>
+      </c>
+      <c r="E24">
+        <v>1.034154683619237</v>
+      </c>
+      <c r="F24">
+        <v>0.9943763474419866</v>
+      </c>
+      <c r="G24">
+        <v>1.019834481373462</v>
+      </c>
+      <c r="H24">
+        <v>0.9720479562981402</v>
+      </c>
+      <c r="I24">
+        <v>0.9943763474419866</v>
+      </c>
+      <c r="J24">
+        <v>0.9911638800032031</v>
+      </c>
+      <c r="K24">
+        <v>0.9943763474419866</v>
+      </c>
+      <c r="L24">
+        <v>0.9898418703008088</v>
+      </c>
+      <c r="M24">
+        <v>1.011998276960023</v>
+      </c>
+      <c r="N24">
+        <v>1.011998276960023</v>
+      </c>
+      <c r="O24">
+        <v>1.014610345097836</v>
+      </c>
+      <c r="P24">
+        <v>1.006124300454011</v>
+      </c>
+      <c r="Q24">
+        <v>1.006124300454011</v>
+      </c>
+      <c r="R24">
+        <v>1.003187312201005</v>
+      </c>
+      <c r="S24">
+        <v>1.003187312201005</v>
+      </c>
+      <c r="T24">
+        <v>1.00023653650614</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.010270937435021</v>
+      </c>
+      <c r="D25">
+        <v>0.99812378356514</v>
+      </c>
+      <c r="E25">
+        <v>1.010270937435021</v>
+      </c>
+      <c r="F25">
+        <v>0.9961875332836595</v>
+      </c>
+      <c r="G25">
+        <v>1.005200911711278</v>
+      </c>
+      <c r="H25">
+        <v>0.9953655576678087</v>
+      </c>
+      <c r="I25">
+        <v>0.9961875332836595</v>
+      </c>
+      <c r="J25">
+        <v>0.9975592800789448</v>
+      </c>
+      <c r="K25">
+        <v>0.9961875332836595</v>
+      </c>
+      <c r="L25">
+        <v>0.99812378356514</v>
+      </c>
+      <c r="M25">
+        <v>1.00419736050008</v>
+      </c>
+      <c r="N25">
+        <v>1.00419736050008</v>
+      </c>
+      <c r="O25">
+        <v>1.00453187757048</v>
+      </c>
+      <c r="P25">
+        <v>1.001527418094607</v>
+      </c>
+      <c r="Q25">
+        <v>1.001527418094607</v>
+      </c>
+      <c r="R25">
+        <v>1.00019244689187</v>
+      </c>
+      <c r="S25">
+        <v>1.00019244689187</v>
+      </c>
+      <c r="T25">
+        <v>1.000451333956975</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.03404051740268</v>
+      </c>
+      <c r="D26">
+        <v>0.9897846227880728</v>
+      </c>
+      <c r="E26">
+        <v>1.03404051740268</v>
+      </c>
+      <c r="F26">
+        <v>0.9945593124844816</v>
+      </c>
+      <c r="G26">
+        <v>1.019827281522938</v>
+      </c>
+      <c r="H26">
+        <v>0.9718495272863409</v>
+      </c>
+      <c r="I26">
+        <v>0.9945593124844816</v>
+      </c>
+      <c r="J26">
+        <v>0.9911766633103142</v>
+      </c>
+      <c r="K26">
+        <v>0.9945593124844816</v>
+      </c>
+      <c r="L26">
+        <v>0.9897846227880728</v>
+      </c>
+      <c r="M26">
+        <v>1.011912570095376</v>
+      </c>
+      <c r="N26">
+        <v>1.011912570095376</v>
+      </c>
+      <c r="O26">
+        <v>1.014550807237897</v>
+      </c>
+      <c r="P26">
+        <v>1.006128150891745</v>
+      </c>
+      <c r="Q26">
+        <v>1.006128150891745</v>
+      </c>
+      <c r="R26">
+        <v>1.003235941289929</v>
+      </c>
+      <c r="S26">
+        <v>1.003235941289929</v>
+      </c>
+      <c r="T26">
+        <v>1.000206320799138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.010317149885441</v>
+      </c>
+      <c r="D27">
+        <v>0.9981479088090115</v>
+      </c>
+      <c r="E27">
+        <v>1.010317149885441</v>
+      </c>
+      <c r="F27">
+        <v>0.9961117454867215</v>
+      </c>
+      <c r="G27">
+        <v>1.005203217176753</v>
+      </c>
+      <c r="H27">
+        <v>0.9954489295334096</v>
+      </c>
+      <c r="I27">
+        <v>0.9961117454867215</v>
+      </c>
+      <c r="J27">
+        <v>0.9975542756302054</v>
+      </c>
+      <c r="K27">
+        <v>0.9961117454867215</v>
+      </c>
+      <c r="L27">
+        <v>0.9981479088090115</v>
+      </c>
+      <c r="M27">
+        <v>1.004232529347227</v>
+      </c>
+      <c r="N27">
+        <v>1.004232529347227</v>
+      </c>
+      <c r="O27">
+        <v>1.004556091957069</v>
+      </c>
+      <c r="P27">
+        <v>1.001525601393725</v>
+      </c>
+      <c r="Q27">
+        <v>1.001525601393725</v>
+      </c>
+      <c r="R27">
+        <v>1.000172137416974</v>
+      </c>
+      <c r="S27">
+        <v>1.000172137416974</v>
+      </c>
+      <c r="T27">
+        <v>1.000463871086924</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9103443970358012</v>
+      </c>
+      <c r="D28">
+        <v>1.020938812053316</v>
+      </c>
+      <c r="E28">
+        <v>0.9103443970358012</v>
+      </c>
+      <c r="F28">
+        <v>1.025069044358937</v>
+      </c>
+      <c r="G28">
+        <v>0.9516452745890305</v>
+      </c>
+      <c r="H28">
+        <v>1.055050114751835</v>
+      </c>
+      <c r="I28">
+        <v>1.025069044358937</v>
+      </c>
+      <c r="J28">
+        <v>1.022142963303914</v>
+      </c>
+      <c r="K28">
+        <v>1.025069044358937</v>
+      </c>
+      <c r="L28">
+        <v>1.020938812053316</v>
+      </c>
+      <c r="M28">
+        <v>0.9656416045445584</v>
+      </c>
+      <c r="N28">
+        <v>0.9656416045445584</v>
+      </c>
+      <c r="O28">
+        <v>0.960976161226049</v>
+      </c>
+      <c r="P28">
+        <v>0.9854507511493514</v>
+      </c>
+      <c r="Q28">
+        <v>0.9854507511493514</v>
+      </c>
+      <c r="R28">
+        <v>0.9953553244517479</v>
+      </c>
+      <c r="S28">
+        <v>0.9953553244517479</v>
+      </c>
+      <c r="T28">
+        <v>0.997531767682139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9272312764211944</v>
+      </c>
+      <c r="D29">
+        <v>1.017440440829219</v>
+      </c>
+      <c r="E29">
+        <v>0.9272312764211944</v>
+      </c>
+      <c r="F29">
+        <v>1.019545301577338</v>
+      </c>
+      <c r="G29">
+        <v>0.9604643287484512</v>
+      </c>
+      <c r="H29">
+        <v>1.046106910180834</v>
+      </c>
+      <c r="I29">
+        <v>1.019545301577338</v>
+      </c>
+      <c r="J29">
+        <v>1.018054103661542</v>
+      </c>
+      <c r="K29">
+        <v>1.019545301577338</v>
+      </c>
+      <c r="L29">
+        <v>1.017440440829219</v>
+      </c>
+      <c r="M29">
+        <v>0.9723358586252069</v>
+      </c>
+      <c r="N29">
+        <v>0.9723358586252069</v>
+      </c>
+      <c r="O29">
+        <v>0.9683786819996216</v>
+      </c>
+      <c r="P29">
+        <v>0.9880723396092507</v>
+      </c>
+      <c r="Q29">
+        <v>0.9880723396092507</v>
+      </c>
+      <c r="R29">
+        <v>0.9959405801012725</v>
+      </c>
+      <c r="S29">
+        <v>0.9959405801012725</v>
+      </c>
+      <c r="T29">
+        <v>0.9981403935697633</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9611604292391189</v>
+      </c>
+      <c r="D30">
+        <v>1.010392141972599</v>
+      </c>
+      <c r="E30">
+        <v>0.9611604292391189</v>
+      </c>
+      <c r="F30">
+        <v>1.008481834207638</v>
+      </c>
+      <c r="G30">
+        <v>0.9781961377037887</v>
+      </c>
+      <c r="H30">
+        <v>1.028076246918424</v>
+      </c>
+      <c r="I30">
+        <v>1.008481834207638</v>
+      </c>
+      <c r="J30">
+        <v>1.009835201528638</v>
+      </c>
+      <c r="K30">
+        <v>1.008481834207638</v>
+      </c>
+      <c r="L30">
+        <v>1.010392141972599</v>
+      </c>
+      <c r="M30">
+        <v>0.9857762856058589</v>
+      </c>
+      <c r="N30">
+        <v>0.9857762856058589</v>
+      </c>
+      <c r="O30">
+        <v>0.9832495696385021</v>
+      </c>
+      <c r="P30">
+        <v>0.9933448018064519</v>
+      </c>
+      <c r="Q30">
+        <v>0.9933448018064519</v>
+      </c>
+      <c r="R30">
+        <v>0.9971290599067484</v>
+      </c>
+      <c r="S30">
+        <v>0.9971290599067484</v>
+      </c>
+      <c r="T30">
+        <v>0.9993569985950345</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9578904762591284</v>
+      </c>
+      <c r="D31">
+        <v>1.011492402476594</v>
+      </c>
+      <c r="E31">
+        <v>0.9578904762591284</v>
+      </c>
+      <c r="F31">
+        <v>1.008790338601167</v>
+      </c>
+      <c r="G31">
+        <v>0.976214430697413</v>
+      </c>
+      <c r="H31">
+        <v>1.031161079451894</v>
+      </c>
+      <c r="I31">
+        <v>1.008790338601167</v>
+      </c>
+      <c r="J31">
+        <v>1.010704625939742</v>
+      </c>
+      <c r="K31">
+        <v>1.008790338601167</v>
+      </c>
+      <c r="L31">
+        <v>1.011492402476594</v>
+      </c>
+      <c r="M31">
+        <v>0.9846914393678612</v>
+      </c>
+      <c r="N31">
+        <v>0.9846914393678612</v>
+      </c>
+      <c r="O31">
+        <v>0.9818657698110451</v>
+      </c>
+      <c r="P31">
+        <v>0.9927244057789633</v>
+      </c>
+      <c r="Q31">
+        <v>0.9927244057789633</v>
+      </c>
+      <c r="R31">
+        <v>0.9967408889845142</v>
+      </c>
+      <c r="S31">
+        <v>0.9967408889845142</v>
+      </c>
+      <c r="T31">
+        <v>0.9993755589043229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.8934019339726029</v>
+      </c>
+      <c r="D32">
+        <v>1.024513409589042</v>
+      </c>
+      <c r="E32">
+        <v>0.8934019339726029</v>
+      </c>
+      <c r="F32">
+        <v>1.030494487671233</v>
+      </c>
+      <c r="G32">
+        <v>0.9427552590410954</v>
+      </c>
+      <c r="H32">
+        <v>1.064229834246575</v>
+      </c>
+      <c r="I32">
+        <v>1.030494487671233</v>
+      </c>
+      <c r="J32">
+        <v>1.026257167123287</v>
+      </c>
+      <c r="K32">
+        <v>1.030494487671233</v>
+      </c>
+      <c r="L32">
+        <v>1.024513409589042</v>
+      </c>
+      <c r="M32">
+        <v>0.9589576717808223</v>
+      </c>
+      <c r="N32">
+        <v>0.9589576717808223</v>
+      </c>
+      <c r="O32">
+        <v>0.9535568675342466</v>
+      </c>
+      <c r="P32">
+        <v>0.9828032770776258</v>
+      </c>
+      <c r="Q32">
+        <v>0.9828032770776258</v>
+      </c>
+      <c r="R32">
+        <v>0.9947260797260276</v>
+      </c>
+      <c r="S32">
+        <v>0.9947260797260276</v>
+      </c>
+      <c r="T32">
+        <v>0.9969420152739724</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9523402036842106</v>
+      </c>
+      <c r="D33">
+        <v>1.011329992105263</v>
+      </c>
+      <c r="E33">
+        <v>0.9523402036842106</v>
+      </c>
+      <c r="F33">
+        <v>1.012967856842105</v>
+      </c>
+      <c r="G33">
+        <v>0.9741661673684209</v>
+      </c>
+      <c r="H33">
+        <v>1.029901346842105</v>
+      </c>
+      <c r="I33">
+        <v>1.012967856842105</v>
+      </c>
+      <c r="J33">
+        <v>1.011807507368421</v>
+      </c>
+      <c r="K33">
+        <v>1.012967856842105</v>
+      </c>
+      <c r="L33">
+        <v>1.011329992105263</v>
+      </c>
+      <c r="M33">
+        <v>0.9818350978947369</v>
+      </c>
+      <c r="N33">
+        <v>0.9818350978947369</v>
+      </c>
+      <c r="O33">
+        <v>0.9792787877192982</v>
+      </c>
+      <c r="P33">
+        <v>0.9922126842105264</v>
+      </c>
+      <c r="Q33">
+        <v>0.9922126842105264</v>
+      </c>
+      <c r="R33">
+        <v>0.9974014773684212</v>
+      </c>
+      <c r="S33">
+        <v>0.9974014773684212</v>
+      </c>
+      <c r="T33">
+        <v>0.9987521790350878</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.9559059336842104</v>
+      </c>
+      <c r="D34">
+        <v>1.013161545263158</v>
+      </c>
+      <c r="E34">
+        <v>0.9559059336842104</v>
+      </c>
+      <c r="F34">
+        <v>1.007175060526316</v>
+      </c>
+      <c r="G34">
+        <v>0.9743628205263156</v>
+      </c>
+      <c r="H34">
+        <v>1.036237747894737</v>
+      </c>
+      <c r="I34">
+        <v>1.007175060526316</v>
+      </c>
+      <c r="J34">
+        <v>1.011416210526316</v>
+      </c>
+      <c r="K34">
+        <v>1.007175060526316</v>
+      </c>
+      <c r="L34">
+        <v>1.013161545263158</v>
+      </c>
+      <c r="M34">
+        <v>0.9845337394736842</v>
+      </c>
+      <c r="N34">
+        <v>0.9845337394736842</v>
+      </c>
+      <c r="O34">
+        <v>0.9811434331578947</v>
+      </c>
+      <c r="P34">
+        <v>0.9920808464912282</v>
+      </c>
+      <c r="Q34">
+        <v>0.9920808464912282</v>
+      </c>
+      <c r="R34">
+        <v>0.9958544</v>
+      </c>
+      <c r="S34">
+        <v>0.9958544</v>
+      </c>
+      <c r="T34">
+        <v>0.9997098864035089</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.847179160778274</v>
+      </c>
+      <c r="D35">
+        <v>1.042058417980433</v>
+      </c>
+      <c r="E35">
+        <v>0.847179160778274</v>
+      </c>
+      <c r="F35">
+        <v>1.031269411743852</v>
+      </c>
+      <c r="G35">
+        <v>0.9134516554753367</v>
+      </c>
+      <c r="H35">
+        <v>1.114210829254918</v>
+      </c>
+      <c r="I35">
+        <v>1.031269411743852</v>
+      </c>
+      <c r="J35">
+        <v>1.038912917448721</v>
+      </c>
+      <c r="K35">
+        <v>1.031269411743852</v>
+      </c>
+      <c r="L35">
+        <v>1.042058417980433</v>
+      </c>
+      <c r="M35">
+        <v>0.9446187893793534</v>
+      </c>
+      <c r="N35">
+        <v>0.9446187893793534</v>
+      </c>
+      <c r="O35">
+        <v>0.9342297447446812</v>
+      </c>
+      <c r="P35">
+        <v>0.9735023301675195</v>
+      </c>
+      <c r="Q35">
+        <v>0.9735023301675195</v>
+      </c>
+      <c r="R35">
+        <v>0.9879441005616025</v>
+      </c>
+      <c r="S35">
+        <v>0.9879441005616025</v>
+      </c>
+      <c r="T35">
+        <v>0.9978470654469224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999699447201429</v>
+      </c>
+      <c r="D36">
+        <v>0.9999987423794906</v>
+      </c>
+      <c r="E36">
+        <v>0.9999699447201429</v>
+      </c>
+      <c r="F36">
+        <v>1.000023300704134</v>
+      </c>
+      <c r="G36">
+        <v>0.9999891531442262</v>
+      </c>
+      <c r="H36">
+        <v>0.9999919667589082</v>
+      </c>
+      <c r="I36">
+        <v>1.000023300704134</v>
+      </c>
+      <c r="J36">
+        <v>1.00000590186749</v>
+      </c>
+      <c r="K36">
+        <v>1.000023300704134</v>
+      </c>
+      <c r="L36">
+        <v>0.9999987423794906</v>
+      </c>
+      <c r="M36">
+        <v>0.9999843435498168</v>
+      </c>
+      <c r="N36">
+        <v>0.9999843435498168</v>
+      </c>
+      <c r="O36">
+        <v>0.9999859467479532</v>
+      </c>
+      <c r="P36">
+        <v>0.9999973292679224</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999973292679224</v>
+      </c>
+      <c r="R36">
+        <v>1.000003822126975</v>
+      </c>
+      <c r="S36">
+        <v>1.000003822126975</v>
+      </c>
+      <c r="T36">
+        <v>0.9999965015957321</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9996416685529684</v>
+      </c>
+      <c r="D37">
+        <v>1.000116308809251</v>
+      </c>
+      <c r="E37">
+        <v>0.9996416685529684</v>
+      </c>
+      <c r="F37">
+        <v>1.000041472953625</v>
+      </c>
+      <c r="G37">
+        <v>0.9997855985810814</v>
+      </c>
+      <c r="H37">
+        <v>1.000324411007555</v>
+      </c>
+      <c r="I37">
+        <v>1.000041472953625</v>
+      </c>
+      <c r="J37">
+        <v>1.000094491036824</v>
+      </c>
+      <c r="K37">
+        <v>1.000041472953625</v>
+      </c>
+      <c r="L37">
+        <v>1.000116308809251</v>
+      </c>
+      <c r="M37">
+        <v>0.9998789886811095</v>
+      </c>
+      <c r="N37">
+        <v>0.9998789886811095</v>
+      </c>
+      <c r="O37">
+        <v>0.9998478586477667</v>
+      </c>
+      <c r="P37">
+        <v>0.9999331501052815</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999331501052815</v>
+      </c>
+      <c r="R37">
+        <v>0.9999602308173674</v>
+      </c>
+      <c r="S37">
+        <v>0.9999602308173674</v>
+      </c>
+      <c r="T37">
+        <v>1.000000658490218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9985282582116822</v>
+      </c>
+      <c r="D38">
+        <v>1.000301487256203</v>
+      </c>
+      <c r="E38">
+        <v>0.9985282582116822</v>
+      </c>
+      <c r="F38">
+        <v>1.000487541693251</v>
+      </c>
+      <c r="G38">
+        <v>0.9992335994096785</v>
+      </c>
+      <c r="H38">
+        <v>1.000768522421017</v>
+      </c>
+      <c r="I38">
+        <v>1.000487541693251</v>
+      </c>
+      <c r="J38">
+        <v>1.000355728755776</v>
+      </c>
+      <c r="K38">
+        <v>1.000487541693251</v>
+      </c>
+      <c r="L38">
+        <v>1.000301487256203</v>
+      </c>
+      <c r="M38">
+        <v>0.9994148727339425</v>
+      </c>
+      <c r="N38">
+        <v>0.9994148727339425</v>
+      </c>
+      <c r="O38">
+        <v>0.9993544482925212</v>
+      </c>
+      <c r="P38">
+        <v>0.9997724290537121</v>
+      </c>
+      <c r="Q38">
+        <v>0.9997724290537122</v>
+      </c>
+      <c r="R38">
+        <v>0.999951207213597</v>
+      </c>
+      <c r="S38">
+        <v>0.999951207213597</v>
+      </c>
+      <c r="T38">
+        <v>0.999945856291268</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9964125485411532</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.000634552709514</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9964125485411532</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.001369014802052</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9981968788739306</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.001552250028467</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.001369014802052</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000848678290446</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.001369014802052</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000634552709514</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9985235506253337</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9985235506253337</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9984146600415326</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9994720386842398</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9994720386842398</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999462827136929</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999462827136929</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9998356538742605</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9844652506623096</v>
+      </c>
+      <c r="D40">
+        <v>1.003310073586582</v>
+      </c>
+      <c r="E40">
+        <v>0.9844652506623096</v>
+      </c>
+      <c r="F40">
+        <v>1.004916183988919</v>
+      </c>
+      <c r="G40">
+        <v>0.9918275880867163</v>
+      </c>
+      <c r="H40">
+        <v>1.008520942230992</v>
+      </c>
+      <c r="I40">
+        <v>1.004916183988919</v>
+      </c>
+      <c r="J40">
+        <v>1.003778330321967</v>
+      </c>
+      <c r="K40">
+        <v>1.004916183988919</v>
+      </c>
+      <c r="L40">
+        <v>1.003310073586582</v>
+      </c>
+      <c r="M40">
+        <v>0.9938876621244459</v>
+      </c>
+      <c r="N40">
+        <v>0.9938876621244459</v>
+      </c>
+      <c r="O40">
+        <v>0.9932009707785361</v>
+      </c>
+      <c r="P40">
+        <v>0.9975638360792703</v>
+      </c>
+      <c r="Q40">
+        <v>0.9975638360792703</v>
+      </c>
+      <c r="R40">
+        <v>0.9994019230566826</v>
+      </c>
+      <c r="S40">
+        <v>0.9994019230566826</v>
+      </c>
+      <c r="T40">
+        <v>0.9994697281462478</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.008865440593903</v>
+      </c>
+      <c r="D41">
+        <v>0.9979285213044848</v>
+      </c>
+      <c r="E41">
+        <v>1.008865440593903</v>
+      </c>
+      <c r="F41">
+        <v>0.9975228542884002</v>
+      </c>
+      <c r="G41">
+        <v>1.004782107674018</v>
+      </c>
+      <c r="H41">
+        <v>0.9945533234439604</v>
+      </c>
+      <c r="I41">
+        <v>0.9975228542884002</v>
+      </c>
+      <c r="J41">
+        <v>0.9978102491566085</v>
+      </c>
+      <c r="K41">
+        <v>0.9975228542884002</v>
+      </c>
+      <c r="L41">
+        <v>0.9979285213044848</v>
+      </c>
+      <c r="M41">
+        <v>1.003396980949194</v>
+      </c>
+      <c r="N41">
+        <v>1.003396980949194</v>
+      </c>
+      <c r="O41">
+        <v>1.003858689857469</v>
+      </c>
+      <c r="P41">
+        <v>1.001438938728929</v>
+      </c>
+      <c r="Q41">
+        <v>1.001438938728929</v>
+      </c>
+      <c r="R41">
+        <v>1.000459917618797</v>
+      </c>
+      <c r="S41">
+        <v>1.000459917618797</v>
+      </c>
+      <c r="T41">
+        <v>1.000243749410229</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9416815210922695</v>
+      </c>
+      <c r="D42">
+        <v>1.013952352991036</v>
+      </c>
+      <c r="E42">
+        <v>0.9416815210922695</v>
+      </c>
+      <c r="F42">
+        <v>1.015708693852183</v>
+      </c>
+      <c r="G42">
+        <v>0.9683313036569344</v>
+      </c>
+      <c r="H42">
+        <v>1.036871737016177</v>
+      </c>
+      <c r="I42">
+        <v>1.015708693852183</v>
+      </c>
+      <c r="J42">
+        <v>1.014464406054422</v>
+      </c>
+      <c r="K42">
+        <v>1.015708693852183</v>
+      </c>
+      <c r="L42">
+        <v>1.013952352991036</v>
+      </c>
+      <c r="M42">
+        <v>0.9778169370416527</v>
+      </c>
+      <c r="N42">
+        <v>0.9778169370416527</v>
+      </c>
+      <c r="O42">
+        <v>0.9746550592467466</v>
+      </c>
+      <c r="P42">
+        <v>0.9904475226451629</v>
+      </c>
+      <c r="Q42">
+        <v>0.9904475226451629</v>
+      </c>
+      <c r="R42">
+        <v>0.996762815446918</v>
+      </c>
+      <c r="S42">
+        <v>0.996762815446918</v>
+      </c>
+      <c r="T42">
+        <v>0.9985016691105036</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma2F-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW35.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.00130579933954</v>
+        <v>0.9992072424501887</v>
       </c>
       <c r="D3">
-        <v>0.9953908168869432</v>
+        <v>1.000216912061246</v>
       </c>
       <c r="E3">
-        <v>1.001067014520995</v>
+        <v>0.9992072424501887</v>
       </c>
       <c r="F3">
-        <v>1.00130579933954</v>
+        <v>1.000164486776744</v>
       </c>
       <c r="G3">
-        <v>1.002799887701161</v>
+        <v>0.9995518507136781</v>
       </c>
       <c r="H3">
-        <v>0.9975202111000852</v>
+        <v>1.0005884162085</v>
       </c>
       <c r="I3">
-        <v>1.001136630965781</v>
+        <v>1.000164486776744</v>
       </c>
       <c r="J3">
-        <v>0.9953908168869432</v>
+        <v>1.00020162757515</v>
       </c>
       <c r="K3">
-        <v>1.00130579933954</v>
+        <v>1.000164486776744</v>
       </c>
       <c r="L3">
-        <v>1.001067014520995</v>
+        <v>1.000216912061246</v>
       </c>
       <c r="M3">
-        <v>0.9982289157039691</v>
+        <v>0.9997120772557171</v>
       </c>
       <c r="N3">
-        <v>0.9982289157039691</v>
+        <v>0.9997120772557171</v>
       </c>
       <c r="O3">
-        <v>0.9979926808360077</v>
+        <v>0.9996586684083707</v>
       </c>
       <c r="P3">
-        <v>0.9992545435824929</v>
+        <v>0.9998628804293928</v>
       </c>
       <c r="Q3">
-        <v>0.9992545435824929</v>
+        <v>0.9998628804293928</v>
       </c>
       <c r="R3">
-        <v>0.9997673575217547</v>
+        <v>0.9999382820162306</v>
       </c>
       <c r="S3">
-        <v>0.9997673575217547</v>
+        <v>0.9999382820162306</v>
       </c>
       <c r="T3">
-        <v>0.999870060085751</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9999884226309176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.002512969841307</v>
+        <v>0.9844652506623096</v>
       </c>
       <c r="D4">
-        <v>0.9911068652383995</v>
+        <v>1.003310073586582</v>
       </c>
       <c r="E4">
-        <v>1.002062344294971</v>
+        <v>0.9844652506623096</v>
       </c>
       <c r="F4">
-        <v>1.002512969841307</v>
+        <v>1.004916183988919</v>
       </c>
       <c r="G4">
-        <v>1.00541375040599</v>
+        <v>0.9918275880867163</v>
       </c>
       <c r="H4">
-        <v>0.9952130645837153</v>
+        <v>1.008520942230992</v>
       </c>
       <c r="I4">
-        <v>1.002193722179241</v>
+        <v>1.004916183988919</v>
       </c>
       <c r="J4">
-        <v>0.9911068652383995</v>
+        <v>1.003778330321967</v>
       </c>
       <c r="K4">
-        <v>1.002512969841307</v>
+        <v>1.004916183988919</v>
       </c>
       <c r="L4">
-        <v>1.002062344294971</v>
+        <v>1.003310073586582</v>
       </c>
       <c r="M4">
-        <v>0.9965846047666855</v>
+        <v>0.9938876621244459</v>
       </c>
       <c r="N4">
-        <v>0.9965846047666855</v>
+        <v>0.9938876621244459</v>
       </c>
       <c r="O4">
-        <v>0.9961274247056955</v>
+        <v>0.9932009707785361</v>
       </c>
       <c r="P4">
-        <v>0.998560726458226</v>
+        <v>0.9975638360792703</v>
       </c>
       <c r="Q4">
-        <v>0.998560726458226</v>
+        <v>0.9975638360792703</v>
       </c>
       <c r="R4">
-        <v>0.9995487873039963</v>
+        <v>0.9994019230566826</v>
       </c>
       <c r="S4">
-        <v>0.9995487873039963</v>
+        <v>0.9994019230566826</v>
       </c>
       <c r="T4">
-        <v>0.9997504527572708</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9994697281462478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.004800201666305</v>
+        <v>0.9539883536383288</v>
       </c>
       <c r="D5">
-        <v>0.9829669993525452</v>
+        <v>1.012302593746397</v>
       </c>
       <c r="E5">
-        <v>1.003957160159217</v>
+        <v>0.9539883536383288</v>
       </c>
       <c r="F5">
-        <v>1.004800201666305</v>
+        <v>1.010063480036022</v>
       </c>
       <c r="G5">
-        <v>1.010391842377361</v>
+        <v>0.9741754002089317</v>
       </c>
       <c r="H5">
-        <v>0.9908269578915755</v>
+        <v>1.033233409272337</v>
       </c>
       <c r="I5">
-        <v>1.004202945205611</v>
+        <v>1.010063480036022</v>
       </c>
       <c r="J5">
-        <v>0.9829669993525452</v>
+        <v>1.011649788832853</v>
       </c>
       <c r="K5">
-        <v>1.004800201666305</v>
+        <v>1.010063480036022</v>
       </c>
       <c r="L5">
-        <v>1.003957160159217</v>
+        <v>1.012302593746397</v>
       </c>
       <c r="M5">
-        <v>0.9934620797558813</v>
+        <v>0.983145473692363</v>
       </c>
       <c r="N5">
-        <v>0.9934620797558813</v>
+        <v>0.983145473692363</v>
       </c>
       <c r="O5">
-        <v>0.9925837058011128</v>
+        <v>0.9801554491978859</v>
       </c>
       <c r="P5">
-        <v>0.9972414537260227</v>
+        <v>0.9921181424735828</v>
       </c>
       <c r="Q5">
-        <v>0.9972414537260227</v>
+        <v>0.9921181424735828</v>
       </c>
       <c r="R5">
-        <v>0.9991311407110933</v>
+        <v>0.9966044768641926</v>
       </c>
       <c r="S5">
-        <v>0.9991311407110933</v>
+        <v>0.9966044768641926</v>
       </c>
       <c r="T5">
-        <v>0.9995243511087694</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9992355042891449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.007029308804809</v>
+        <v>0.847179160778274</v>
       </c>
       <c r="D6">
-        <v>0.9750248249793178</v>
+        <v>1.042058417980433</v>
       </c>
       <c r="E6">
-        <v>1.005807382282741</v>
+        <v>0.847179160778274</v>
       </c>
       <c r="F6">
-        <v>1.007029308804809</v>
+        <v>1.031269411743852</v>
       </c>
       <c r="G6">
-        <v>1.015253625805075</v>
+        <v>0.9134516554753367</v>
       </c>
       <c r="H6">
-        <v>0.9865464487442819</v>
+        <v>1.114210829254918</v>
       </c>
       <c r="I6">
-        <v>1.006163637324672</v>
+        <v>1.031269411743852</v>
       </c>
       <c r="J6">
-        <v>0.9750248249793178</v>
+        <v>1.038912917448721</v>
       </c>
       <c r="K6">
-        <v>1.007029308804809</v>
+        <v>1.031269411743852</v>
       </c>
       <c r="L6">
-        <v>1.005807382282741</v>
+        <v>1.042058417980433</v>
       </c>
       <c r="M6">
-        <v>0.9904161036310295</v>
+        <v>0.9446187893793534</v>
       </c>
       <c r="N6">
-        <v>0.9904161036310295</v>
+        <v>0.9446187893793534</v>
       </c>
       <c r="O6">
-        <v>0.9891262186687803</v>
+        <v>0.9342297447446812</v>
       </c>
       <c r="P6">
-        <v>0.995953838688956</v>
+        <v>0.9735023301675195</v>
       </c>
       <c r="Q6">
-        <v>0.9959538386889562</v>
+        <v>0.9735023301675195</v>
       </c>
       <c r="R6">
-        <v>0.9987227062179194</v>
+        <v>0.9879441005616025</v>
       </c>
       <c r="S6">
-        <v>0.9987227062179194</v>
+        <v>0.9879441005616025</v>
       </c>
       <c r="T6">
-        <v>0.999304204656816</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.9978470654469224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000064249284991</v>
+        <v>0.9949770784690625</v>
       </c>
       <c r="D7">
-        <v>0.999689146492388</v>
+        <v>1.00116990707096</v>
       </c>
       <c r="E7">
-        <v>1.00008519259864</v>
+        <v>0.9949770784690625</v>
       </c>
       <c r="F7">
-        <v>1.000064249284991</v>
+        <v>1.00141020969898</v>
       </c>
       <c r="G7">
-        <v>1.000231167806696</v>
+        <v>0.9972930060221205</v>
       </c>
       <c r="H7">
-        <v>0.9998241836358878</v>
+        <v>1.003073978278884</v>
       </c>
       <c r="I7">
-        <v>1.000079086271223</v>
+        <v>1.00141020969898</v>
       </c>
       <c r="J7">
-        <v>0.999689146492388</v>
+        <v>1.001239965724992</v>
       </c>
       <c r="K7">
-        <v>1.000064249284991</v>
+        <v>1.00141020969898</v>
       </c>
       <c r="L7">
-        <v>1.00008519259864</v>
+        <v>1.00116990707096</v>
       </c>
       <c r="M7">
-        <v>0.9998871695455139</v>
+        <v>0.9980734927700112</v>
       </c>
       <c r="N7">
-        <v>0.9998871695455139</v>
+        <v>0.9980734927700112</v>
       </c>
       <c r="O7">
-        <v>0.9998661742423053</v>
+        <v>0.9978133305207143</v>
       </c>
       <c r="P7">
-        <v>0.9999461961253395</v>
+        <v>0.9991857317463341</v>
       </c>
       <c r="Q7">
-        <v>0.9999461961253395</v>
+        <v>0.9991857317463341</v>
       </c>
       <c r="R7">
-        <v>0.9999757094152524</v>
+        <v>0.9997418512344955</v>
       </c>
       <c r="S7">
-        <v>0.9999757094152524</v>
+        <v>0.9997418512344955</v>
       </c>
       <c r="T7">
-        <v>0.9999955043483041</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9998606908775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000164486776744</v>
+        <v>0.9996416685529684</v>
       </c>
       <c r="D8">
-        <v>0.9992072424501887</v>
+        <v>1.000116308809251</v>
       </c>
       <c r="E8">
-        <v>1.000216912061246</v>
+        <v>0.9996416685529684</v>
       </c>
       <c r="F8">
-        <v>1.000164486776744</v>
+        <v>1.000041472953625</v>
       </c>
       <c r="G8">
-        <v>1.0005884162085</v>
+        <v>0.9997855985810814</v>
       </c>
       <c r="H8">
-        <v>0.9995518507136781</v>
+        <v>1.000324411007555</v>
       </c>
       <c r="I8">
-        <v>1.00020162757515</v>
+        <v>1.000041472953625</v>
       </c>
       <c r="J8">
-        <v>0.9992072424501887</v>
+        <v>1.000094491036824</v>
       </c>
       <c r="K8">
-        <v>1.000164486776744</v>
+        <v>1.000041472953625</v>
       </c>
       <c r="L8">
-        <v>1.000216912061246</v>
+        <v>1.000116308809251</v>
       </c>
       <c r="M8">
-        <v>0.9997120772557171</v>
+        <v>0.9998789886811095</v>
       </c>
       <c r="N8">
-        <v>0.9997120772557171</v>
+        <v>0.9998789886811095</v>
       </c>
       <c r="O8">
-        <v>0.9996586684083707</v>
+        <v>0.9998478586477667</v>
       </c>
       <c r="P8">
-        <v>0.9998628804293928</v>
+        <v>0.9999331501052815</v>
       </c>
       <c r="Q8">
-        <v>0.9998628804293928</v>
+        <v>0.9999331501052815</v>
       </c>
       <c r="R8">
-        <v>0.9999382820162306</v>
+        <v>0.9999602308173674</v>
       </c>
       <c r="S8">
-        <v>0.9999382820162306</v>
+        <v>0.9999602308173674</v>
       </c>
       <c r="T8">
-        <v>0.9999884226309176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.000000658490218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000232364897312</v>
+        <v>0.9911068652383997</v>
       </c>
       <c r="D9">
-        <v>0.9988887586557398</v>
+        <v>1.002062344294971</v>
       </c>
       <c r="E9">
-        <v>1.000303057324842</v>
+        <v>0.9911068652383997</v>
       </c>
       <c r="F9">
-        <v>1.000232364897312</v>
+        <v>1.002512969841307</v>
       </c>
       <c r="G9">
-        <v>1.000821616146706</v>
+        <v>0.9952130645837153</v>
       </c>
       <c r="H9">
-        <v>0.999372456281335</v>
+        <v>1.00541375040599</v>
       </c>
       <c r="I9">
-        <v>1.00028244590259</v>
+        <v>1.002512969841307</v>
       </c>
       <c r="J9">
-        <v>0.9988887586557398</v>
+        <v>1.002193722179241</v>
       </c>
       <c r="K9">
-        <v>1.000232364897312</v>
+        <v>1.002512969841307</v>
       </c>
       <c r="L9">
-        <v>1.000303057324842</v>
+        <v>1.002062344294971</v>
       </c>
       <c r="M9">
-        <v>0.999595907990291</v>
+        <v>0.9965846047666855</v>
       </c>
       <c r="N9">
-        <v>0.999595907990291</v>
+        <v>0.9965846047666855</v>
       </c>
       <c r="O9">
-        <v>0.9995214240873057</v>
+        <v>0.9961274247056955</v>
       </c>
       <c r="P9">
-        <v>0.9998080602926311</v>
+        <v>0.998560726458226</v>
       </c>
       <c r="Q9">
-        <v>0.9998080602926311</v>
+        <v>0.998560726458226</v>
       </c>
       <c r="R9">
-        <v>0.9999141364438013</v>
+        <v>0.9995487873039963</v>
       </c>
       <c r="S9">
-        <v>0.9999141364438013</v>
+        <v>0.9995487873039963</v>
       </c>
       <c r="T9">
-        <v>0.9999834498680874</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9997504527572708</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000500728233338</v>
+        <v>0.8449867881214166</v>
       </c>
       <c r="D10">
-        <v>0.9976040810530582</v>
+        <v>1.042726607043495</v>
       </c>
       <c r="E10">
-        <v>1.000653561139002</v>
+        <v>0.8449867881214166</v>
       </c>
       <c r="F10">
-        <v>1.000500728233338</v>
+        <v>1.031601331392923</v>
       </c>
       <c r="G10">
-        <v>1.001771940093733</v>
+        <v>0.9121680283856304</v>
       </c>
       <c r="H10">
-        <v>0.9986468747643316</v>
+        <v>1.11605671793183</v>
       </c>
       <c r="I10">
-        <v>1.000609004170097</v>
+        <v>1.031601331392923</v>
       </c>
       <c r="J10">
-        <v>0.9976040810530582</v>
+        <v>1.039483069079432</v>
       </c>
       <c r="K10">
-        <v>1.000500728233338</v>
+        <v>1.031601331392923</v>
       </c>
       <c r="L10">
-        <v>1.000653561139002</v>
+        <v>1.042726607043495</v>
       </c>
       <c r="M10">
-        <v>0.9991288210960303</v>
+        <v>0.9438566975824558</v>
       </c>
       <c r="N10">
-        <v>0.9991288210960303</v>
+        <v>0.9438566975824558</v>
       </c>
       <c r="O10">
-        <v>0.9989681723187974</v>
+        <v>0.9332938078501808</v>
       </c>
       <c r="P10">
-        <v>0.999586123475133</v>
+        <v>0.9731049088526116</v>
       </c>
       <c r="Q10">
-        <v>0.999586123475133</v>
+        <v>0.9731049088526116</v>
       </c>
       <c r="R10">
-        <v>0.9998147746646843</v>
+        <v>0.9877290144876895</v>
       </c>
       <c r="S10">
-        <v>0.9998147746646843</v>
+        <v>0.9877290144876895</v>
       </c>
       <c r="T10">
-        <v>0.9999643649089268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9978370903257878</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000835127713038</v>
+        <v>0.9855463478892246</v>
       </c>
       <c r="D11">
-        <v>0.9960229464897453</v>
+        <v>1.003218459769369</v>
       </c>
       <c r="E11">
-        <v>1.001082670763185</v>
+        <v>0.9855463478892246</v>
       </c>
       <c r="F11">
-        <v>1.000835127713038</v>
+        <v>1.004324324860628</v>
       </c>
       <c r="G11">
-        <v>1.002934274807662</v>
+        <v>0.9923064184121815</v>
       </c>
       <c r="H11">
-        <v>0.9977553299614972</v>
+        <v>1.008371920255775</v>
       </c>
       <c r="I11">
-        <v>1.001010500472246</v>
+        <v>1.004324324860628</v>
       </c>
       <c r="J11">
-        <v>0.9960229464897453</v>
+        <v>1.003540869607773</v>
       </c>
       <c r="K11">
-        <v>1.000835127713038</v>
+        <v>1.004324324860628</v>
       </c>
       <c r="L11">
-        <v>1.001082670763185</v>
+        <v>1.003218459769369</v>
       </c>
       <c r="M11">
-        <v>0.998552808626465</v>
+        <v>0.9943824038292965</v>
       </c>
       <c r="N11">
-        <v>0.998552808626465</v>
+        <v>0.9943824038292965</v>
       </c>
       <c r="O11">
-        <v>0.998286982404809</v>
+        <v>0.9936904086902582</v>
       </c>
       <c r="P11">
-        <v>0.9993135816553228</v>
+        <v>0.9976963775064069</v>
       </c>
       <c r="Q11">
-        <v>0.9993135816553226</v>
+        <v>0.9976963775064069</v>
       </c>
       <c r="R11">
-        <v>0.9996939681697515</v>
+        <v>0.9993533643449621</v>
       </c>
       <c r="S11">
-        <v>0.9996939681697515</v>
+        <v>0.9993533643449621</v>
       </c>
       <c r="T11">
-        <v>0.9999401417012287</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9995513901324916</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9943763474419866</v>
+        <v>0.9535230524421041</v>
       </c>
       <c r="D12">
-        <v>1.034154683619237</v>
+        <v>1.012842561473684</v>
       </c>
       <c r="E12">
-        <v>0.9898418703008088</v>
+        <v>0.9535230524421041</v>
       </c>
       <c r="F12">
-        <v>0.9943763474419866</v>
+        <v>1.009417248157895</v>
       </c>
       <c r="G12">
-        <v>0.9720479562981402</v>
+        <v>0.9736449644947345</v>
       </c>
       <c r="H12">
-        <v>1.019834481373462</v>
+        <v>1.034899264210527</v>
       </c>
       <c r="I12">
-        <v>0.9911638800032031</v>
+        <v>1.009417248157895</v>
       </c>
       <c r="J12">
-        <v>1.034154683619237</v>
+        <v>1.011843925399999</v>
       </c>
       <c r="K12">
-        <v>0.9943763474419866</v>
+        <v>1.009417248157895</v>
       </c>
       <c r="L12">
-        <v>0.9898418703008088</v>
+        <v>1.012842561473684</v>
       </c>
       <c r="M12">
-        <v>1.011998276960023</v>
+        <v>0.9831828069578941</v>
       </c>
       <c r="N12">
-        <v>1.011998276960023</v>
+        <v>0.9831828069578941</v>
       </c>
       <c r="O12">
-        <v>1.014610345097836</v>
+        <v>0.9800035261368408</v>
       </c>
       <c r="P12">
-        <v>1.006124300454011</v>
+        <v>0.9919276206912278</v>
       </c>
       <c r="Q12">
-        <v>1.006124300454011</v>
+        <v>0.9919276206912278</v>
       </c>
       <c r="R12">
-        <v>1.003187312201005</v>
+        <v>0.9963000275578946</v>
       </c>
       <c r="S12">
-        <v>1.003187312201005</v>
+        <v>0.9963000275578946</v>
       </c>
       <c r="T12">
-        <v>1.00023653650614</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9993618360298239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9961875332836595</v>
+        <v>1.031292682731341</v>
       </c>
       <c r="D13">
-        <v>1.010270937435021</v>
+        <v>0.9920107885545467</v>
       </c>
       <c r="E13">
-        <v>0.99812378356514</v>
+        <v>1.031292682731341</v>
       </c>
       <c r="F13">
-        <v>0.9961875332836595</v>
+        <v>0.9924756967512409</v>
       </c>
       <c r="G13">
-        <v>0.9953655576678087</v>
+        <v>1.017318568817098</v>
       </c>
       <c r="H13">
-        <v>1.005200911711278</v>
+        <v>0.9786068822867866</v>
       </c>
       <c r="I13">
-        <v>0.9975592800789447</v>
+        <v>0.9924756967512409</v>
       </c>
       <c r="J13">
-        <v>1.010270937435021</v>
+        <v>0.9921463322418944</v>
       </c>
       <c r="K13">
-        <v>0.9961875332836595</v>
+        <v>0.9924756967512409</v>
       </c>
       <c r="L13">
-        <v>0.99812378356514</v>
+        <v>0.9920107885545467</v>
       </c>
       <c r="M13">
-        <v>1.00419736050008</v>
+        <v>1.011651735642944</v>
       </c>
       <c r="N13">
-        <v>1.00419736050008</v>
+        <v>1.011651735642944</v>
       </c>
       <c r="O13">
-        <v>1.00453187757048</v>
+        <v>1.013540680034329</v>
       </c>
       <c r="P13">
-        <v>1.001527418094607</v>
+        <v>1.005259722679043</v>
       </c>
       <c r="Q13">
-        <v>1.001527418094607</v>
+        <v>1.005259722679043</v>
       </c>
       <c r="R13">
-        <v>1.00019244689187</v>
+        <v>1.002063716197092</v>
       </c>
       <c r="S13">
-        <v>1.00019244689187</v>
+        <v>1.002063716197092</v>
       </c>
       <c r="T13">
-        <v>1.000451333956975</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.000641825230485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9945593124844816</v>
+        <v>0.7323862499999992</v>
       </c>
       <c r="D14">
-        <v>1.03404051740268</v>
+        <v>1.073924099999999</v>
       </c>
       <c r="E14">
-        <v>0.9897846227880728</v>
+        <v>0.7323862499999992</v>
       </c>
       <c r="F14">
-        <v>0.9945593124844816</v>
+        <v>1.0542662</v>
       </c>
       <c r="G14">
-        <v>0.9718495272863409</v>
+        <v>0.8482630399999994</v>
       </c>
       <c r="H14">
-        <v>1.019827281522938</v>
+        <v>1.200875300000002</v>
       </c>
       <c r="I14">
-        <v>0.9911766633103142</v>
+        <v>1.0542662</v>
       </c>
       <c r="J14">
-        <v>1.03404051740268</v>
+        <v>1.0681929</v>
       </c>
       <c r="K14">
-        <v>0.9945593124844816</v>
+        <v>1.0542662</v>
       </c>
       <c r="L14">
-        <v>0.9897846227880728</v>
+        <v>1.073924099999999</v>
       </c>
       <c r="M14">
-        <v>1.011912570095376</v>
+        <v>0.9031551749999993</v>
       </c>
       <c r="N14">
-        <v>1.011912570095376</v>
+        <v>0.9031551749999993</v>
       </c>
       <c r="O14">
-        <v>1.014550807237897</v>
+        <v>0.8848577966666661</v>
       </c>
       <c r="P14">
-        <v>1.006128150891745</v>
+        <v>0.9535255166666664</v>
       </c>
       <c r="Q14">
-        <v>1.006128150891745</v>
+        <v>0.9535255166666664</v>
       </c>
       <c r="R14">
-        <v>1.003235941289929</v>
+        <v>0.9787106875</v>
       </c>
       <c r="S14">
-        <v>1.003235941289929</v>
+        <v>0.9787106875</v>
       </c>
       <c r="T14">
-        <v>1.000206320799138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9963179650000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9961117454867215</v>
+        <v>0.89885176</v>
       </c>
       <c r="D15">
-        <v>1.010317149885441</v>
+        <v>1.0273165</v>
       </c>
       <c r="E15">
-        <v>0.9981479088090115</v>
+        <v>0.89885176</v>
       </c>
       <c r="F15">
-        <v>0.9961117454867215</v>
+        <v>1.021634</v>
       </c>
       <c r="G15">
-        <v>0.9954489295334096</v>
+        <v>0.9430533699999999</v>
       </c>
       <c r="H15">
-        <v>1.005203217176753</v>
+        <v>1.0739265</v>
       </c>
       <c r="I15">
-        <v>0.9975542756302054</v>
+        <v>1.021634</v>
       </c>
       <c r="J15">
-        <v>1.010317149885441</v>
+        <v>1.0256598</v>
       </c>
       <c r="K15">
-        <v>0.9961117454867215</v>
+        <v>1.021634</v>
       </c>
       <c r="L15">
-        <v>0.9981479088090115</v>
+        <v>1.0273165</v>
       </c>
       <c r="M15">
-        <v>1.004232529347227</v>
+        <v>0.9630841299999999</v>
       </c>
       <c r="N15">
-        <v>1.004232529347227</v>
+        <v>0.9630841299999999</v>
       </c>
       <c r="O15">
-        <v>1.004556091957069</v>
+        <v>0.95640721</v>
       </c>
       <c r="P15">
-        <v>1.001525601393725</v>
+        <v>0.9826007533333332</v>
       </c>
       <c r="Q15">
-        <v>1.001525601393725</v>
+        <v>0.9826007533333333</v>
       </c>
       <c r="R15">
-        <v>1.000172137416974</v>
+        <v>0.992359065</v>
       </c>
       <c r="S15">
-        <v>1.000172137416974</v>
+        <v>0.992359065</v>
       </c>
       <c r="T15">
-        <v>1.000463871086924</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9984069883333332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000023300704134</v>
+        <v>0.88779747</v>
       </c>
       <c r="D16">
-        <v>0.9999699447201429</v>
+        <v>1.0216333</v>
       </c>
       <c r="E16">
-        <v>0.9999987423794906</v>
+        <v>0.88779747</v>
       </c>
       <c r="F16">
-        <v>1.000023300704134</v>
+        <v>1.0396018</v>
       </c>
       <c r="G16">
-        <v>0.9999919667589082</v>
+        <v>0.94244704</v>
       </c>
       <c r="H16">
-        <v>0.9999891531442262</v>
+        <v>1.0542662</v>
       </c>
       <c r="I16">
-        <v>1.00000590186749</v>
+        <v>1.0396018</v>
       </c>
       <c r="J16">
-        <v>0.9999699447201429</v>
+        <v>1.0268719</v>
       </c>
       <c r="K16">
-        <v>1.000023300704134</v>
+        <v>1.0396018</v>
       </c>
       <c r="L16">
-        <v>0.9999987423794906</v>
+        <v>1.0216333</v>
       </c>
       <c r="M16">
-        <v>0.9999843435498168</v>
+        <v>0.954715385</v>
       </c>
       <c r="N16">
-        <v>0.9999843435498168</v>
+        <v>0.954715385</v>
       </c>
       <c r="O16">
-        <v>0.9999859467479532</v>
+        <v>0.9506259366666666</v>
       </c>
       <c r="P16">
-        <v>0.9999973292679224</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="Q16">
-        <v>0.9999973292679224</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="R16">
-        <v>1.000003822126975</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="S16">
-        <v>1.000003822126975</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="T16">
-        <v>0.9999965015957321</v>
+        <v>0.9954362849999999</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000041472953625</v>
+        <v>1.0806503</v>
       </c>
       <c r="D17">
-        <v>0.9996416685529684</v>
+        <v>0.9803250699999999</v>
       </c>
       <c r="E17">
-        <v>1.000116308809251</v>
+        <v>1.0806503</v>
       </c>
       <c r="F17">
-        <v>1.000041472953625</v>
+        <v>0.9789596699999999</v>
       </c>
       <c r="G17">
-        <v>1.000324411007555</v>
+        <v>1.0440417</v>
       </c>
       <c r="H17">
-        <v>0.9997855985810818</v>
+        <v>0.94779361</v>
       </c>
       <c r="I17">
-        <v>1.000094491036824</v>
+        <v>0.9789596699999999</v>
       </c>
       <c r="J17">
-        <v>0.9996416685529684</v>
+        <v>0.979927</v>
       </c>
       <c r="K17">
-        <v>1.000041472953625</v>
+        <v>0.9789596699999999</v>
       </c>
       <c r="L17">
-        <v>1.000116308809251</v>
+        <v>0.9803250699999999</v>
       </c>
       <c r="M17">
-        <v>0.9998789886811095</v>
+        <v>1.030487685</v>
       </c>
       <c r="N17">
-        <v>0.9998789886811095</v>
+        <v>1.030487685</v>
       </c>
       <c r="O17">
-        <v>0.9998478586477669</v>
+        <v>1.03500569</v>
       </c>
       <c r="P17">
-        <v>0.9999331501052815</v>
+        <v>1.01331168</v>
       </c>
       <c r="Q17">
-        <v>0.9999331501052815</v>
+        <v>1.01331168</v>
       </c>
       <c r="R17">
-        <v>0.9999602308173674</v>
+        <v>1.0047236775</v>
       </c>
       <c r="S17">
-        <v>0.9999602308173674</v>
+        <v>1.0047236775</v>
       </c>
       <c r="T17">
-        <v>1.000000658490218</v>
+        <v>1.001949558333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000487541693251</v>
+        <v>0.8934019339726029</v>
       </c>
       <c r="D18">
-        <v>0.9985282582116822</v>
+        <v>1.024513409589042</v>
       </c>
       <c r="E18">
-        <v>1.000301487256203</v>
+        <v>0.8934019339726029</v>
       </c>
       <c r="F18">
-        <v>1.000487541693251</v>
+        <v>1.030494487671233</v>
       </c>
       <c r="G18">
-        <v>1.000768522421017</v>
+        <v>0.9427552590410954</v>
       </c>
       <c r="H18">
-        <v>0.9992335994096785</v>
+        <v>1.064229834246575</v>
       </c>
       <c r="I18">
-        <v>1.000355728755776</v>
+        <v>1.030494487671233</v>
       </c>
       <c r="J18">
-        <v>0.9985282582116822</v>
+        <v>1.026257167123287</v>
       </c>
       <c r="K18">
-        <v>1.000487541693251</v>
+        <v>1.030494487671233</v>
       </c>
       <c r="L18">
-        <v>1.000301487256203</v>
+        <v>1.024513409589042</v>
       </c>
       <c r="M18">
-        <v>0.9994148727339425</v>
+        <v>0.9589576717808223</v>
       </c>
       <c r="N18">
-        <v>0.9994148727339425</v>
+        <v>0.9589576717808223</v>
       </c>
       <c r="O18">
-        <v>0.9993544482925212</v>
+        <v>0.9535568675342466</v>
       </c>
       <c r="P18">
-        <v>0.9997724290537121</v>
+        <v>0.9828032770776258</v>
       </c>
       <c r="Q18">
-        <v>0.9997724290537121</v>
+        <v>0.9828032770776258</v>
       </c>
       <c r="R18">
-        <v>0.9999512072135968</v>
+        <v>0.9947260797260276</v>
       </c>
       <c r="S18">
-        <v>0.9999512072135968</v>
+        <v>0.9947260797260276</v>
       </c>
       <c r="T18">
-        <v>0.999945856291268</v>
+        <v>0.9969420152739724</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.001369014802052</v>
+        <v>0.9523402036842106</v>
       </c>
       <c r="D19">
-        <v>0.9964125485411532</v>
+        <v>1.011329992105263</v>
       </c>
       <c r="E19">
-        <v>1.000634552709514</v>
+        <v>0.9523402036842106</v>
       </c>
       <c r="F19">
-        <v>1.001369014802052</v>
+        <v>1.012967856842105</v>
       </c>
       <c r="G19">
-        <v>1.001552250028467</v>
+        <v>0.9741661673684209</v>
       </c>
       <c r="H19">
-        <v>0.9981968788739306</v>
+        <v>1.029901346842105</v>
       </c>
       <c r="I19">
-        <v>1.000848678290446</v>
+        <v>1.012967856842105</v>
       </c>
       <c r="J19">
-        <v>0.9964125485411532</v>
+        <v>1.011807507368421</v>
       </c>
       <c r="K19">
-        <v>1.001369014802052</v>
+        <v>1.012967856842105</v>
       </c>
       <c r="L19">
-        <v>1.000634552709514</v>
+        <v>1.011329992105263</v>
       </c>
       <c r="M19">
-        <v>0.9985235506253337</v>
+        <v>0.9818350978947369</v>
       </c>
       <c r="N19">
-        <v>0.9985235506253337</v>
+        <v>0.9818350978947369</v>
       </c>
       <c r="O19">
-        <v>0.9984146600415326</v>
+        <v>0.9792787877192982</v>
       </c>
       <c r="P19">
-        <v>0.9994720386842398</v>
+        <v>0.9922126842105264</v>
       </c>
       <c r="Q19">
-        <v>0.9994720386842398</v>
+        <v>0.9922126842105264</v>
       </c>
       <c r="R19">
-        <v>0.9999462827136929</v>
+        <v>0.9974014773684212</v>
       </c>
       <c r="S19">
-        <v>0.9999462827136929</v>
+        <v>0.9974014773684212</v>
       </c>
       <c r="T19">
-        <v>0.9998356538742605</v>
+        <v>0.9987521790350878</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9559059336842104</v>
+      </c>
+      <c r="D20">
+        <v>1.013161545263158</v>
+      </c>
+      <c r="E20">
+        <v>0.9559059336842104</v>
+      </c>
+      <c r="F20">
+        <v>1.007175060526316</v>
+      </c>
+      <c r="G20">
+        <v>0.9743628205263156</v>
+      </c>
+      <c r="H20">
+        <v>1.036237747894737</v>
+      </c>
+      <c r="I20">
+        <v>1.007175060526316</v>
+      </c>
+      <c r="J20">
+        <v>1.011416210526316</v>
+      </c>
+      <c r="K20">
+        <v>1.007175060526316</v>
+      </c>
+      <c r="L20">
+        <v>1.013161545263158</v>
+      </c>
+      <c r="M20">
+        <v>0.9845337394736842</v>
+      </c>
+      <c r="N20">
+        <v>0.9845337394736842</v>
+      </c>
+      <c r="O20">
+        <v>0.9811434331578947</v>
+      </c>
+      <c r="P20">
+        <v>0.9920808464912282</v>
+      </c>
+      <c r="Q20">
+        <v>0.9920808464912282</v>
+      </c>
+      <c r="R20">
+        <v>0.9958544</v>
+      </c>
+      <c r="S20">
+        <v>0.9958544</v>
+      </c>
+      <c r="T20">
+        <v>0.9997098864035089</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.03404051740268</v>
+      </c>
+      <c r="D21">
+        <v>0.9897846227880728</v>
+      </c>
+      <c r="E21">
+        <v>1.03404051740268</v>
+      </c>
+      <c r="F21">
+        <v>0.9945593124844816</v>
+      </c>
+      <c r="G21">
+        <v>1.019827281522938</v>
+      </c>
+      <c r="H21">
+        <v>0.9718495272863409</v>
+      </c>
+      <c r="I21">
+        <v>0.9945593124844816</v>
+      </c>
+      <c r="J21">
+        <v>0.9911766633103142</v>
+      </c>
+      <c r="K21">
+        <v>0.9945593124844816</v>
+      </c>
+      <c r="L21">
+        <v>0.9897846227880728</v>
+      </c>
+      <c r="M21">
+        <v>1.011912570095376</v>
+      </c>
+      <c r="N21">
+        <v>1.011912570095376</v>
+      </c>
+      <c r="O21">
+        <v>1.014550807237897</v>
+      </c>
+      <c r="P21">
+        <v>1.006128150891745</v>
+      </c>
+      <c r="Q21">
+        <v>1.006128150891745</v>
+      </c>
+      <c r="R21">
+        <v>1.003235941289929</v>
+      </c>
+      <c r="S21">
+        <v>1.003235941289929</v>
+      </c>
+      <c r="T21">
+        <v>1.000206320799138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.010317149885441</v>
+      </c>
+      <c r="D22">
+        <v>0.9981479088090115</v>
+      </c>
+      <c r="E22">
+        <v>1.010317149885441</v>
+      </c>
+      <c r="F22">
+        <v>0.9961117454867215</v>
+      </c>
+      <c r="G22">
+        <v>1.005203217176753</v>
+      </c>
+      <c r="H22">
+        <v>0.9954489295334096</v>
+      </c>
+      <c r="I22">
+        <v>0.9961117454867215</v>
+      </c>
+      <c r="J22">
+        <v>0.9975542756302054</v>
+      </c>
+      <c r="K22">
+        <v>0.9961117454867215</v>
+      </c>
+      <c r="L22">
+        <v>0.9981479088090115</v>
+      </c>
+      <c r="M22">
+        <v>1.004232529347227</v>
+      </c>
+      <c r="N22">
+        <v>1.004232529347227</v>
+      </c>
+      <c r="O22">
+        <v>1.004556091957069</v>
+      </c>
+      <c r="P22">
+        <v>1.001525601393725</v>
+      </c>
+      <c r="Q22">
+        <v>1.001525601393725</v>
+      </c>
+      <c r="R22">
+        <v>1.000172137416974</v>
+      </c>
+      <c r="S22">
+        <v>1.000172137416974</v>
+      </c>
+      <c r="T22">
+        <v>1.000463871086924</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.034154683619237</v>
+      </c>
+      <c r="D23">
+        <v>0.9898418703008088</v>
+      </c>
+      <c r="E23">
+        <v>1.034154683619237</v>
+      </c>
+      <c r="F23">
+        <v>0.9943763474419866</v>
+      </c>
+      <c r="G23">
+        <v>1.019834481373462</v>
+      </c>
+      <c r="H23">
+        <v>0.9720479562981402</v>
+      </c>
+      <c r="I23">
+        <v>0.9943763474419866</v>
+      </c>
+      <c r="J23">
+        <v>0.9911638800032031</v>
+      </c>
+      <c r="K23">
+        <v>0.9943763474419866</v>
+      </c>
+      <c r="L23">
+        <v>0.9898418703008088</v>
+      </c>
+      <c r="M23">
+        <v>1.011998276960023</v>
+      </c>
+      <c r="N23">
+        <v>1.011998276960023</v>
+      </c>
+      <c r="O23">
+        <v>1.014610345097836</v>
+      </c>
+      <c r="P23">
+        <v>1.006124300454011</v>
+      </c>
+      <c r="Q23">
+        <v>1.006124300454011</v>
+      </c>
+      <c r="R23">
+        <v>1.003187312201005</v>
+      </c>
+      <c r="S23">
+        <v>1.003187312201005</v>
+      </c>
+      <c r="T23">
+        <v>1.00023653650614</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.010270937435021</v>
+      </c>
+      <c r="D24">
+        <v>0.99812378356514</v>
+      </c>
+      <c r="E24">
+        <v>1.010270937435021</v>
+      </c>
+      <c r="F24">
+        <v>0.9961875332836595</v>
+      </c>
+      <c r="G24">
+        <v>1.005200911711278</v>
+      </c>
+      <c r="H24">
+        <v>0.9953655576678087</v>
+      </c>
+      <c r="I24">
+        <v>0.9961875332836595</v>
+      </c>
+      <c r="J24">
+        <v>0.9975592800789448</v>
+      </c>
+      <c r="K24">
+        <v>0.9961875332836595</v>
+      </c>
+      <c r="L24">
+        <v>0.99812378356514</v>
+      </c>
+      <c r="M24">
+        <v>1.00419736050008</v>
+      </c>
+      <c r="N24">
+        <v>1.00419736050008</v>
+      </c>
+      <c r="O24">
+        <v>1.00453187757048</v>
+      </c>
+      <c r="P24">
+        <v>1.001527418094607</v>
+      </c>
+      <c r="Q24">
+        <v>1.001527418094607</v>
+      </c>
+      <c r="R24">
+        <v>1.00019244689187</v>
+      </c>
+      <c r="S24">
+        <v>1.00019244689187</v>
+      </c>
+      <c r="T24">
+        <v>1.000451333956975</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.034268230080107</v>
+      </c>
+      <c r="D25">
+        <v>0.989899234930833</v>
+      </c>
+      <c r="E25">
+        <v>1.034268230080107</v>
+      </c>
+      <c r="F25">
+        <v>0.9941936162829926</v>
+      </c>
+      <c r="G25">
+        <v>1.01984137283815</v>
+      </c>
+      <c r="H25">
+        <v>0.9722466540699179</v>
+      </c>
+      <c r="I25">
+        <v>0.9941936162829926</v>
+      </c>
+      <c r="J25">
+        <v>0.9911512463230752</v>
+      </c>
+      <c r="K25">
+        <v>0.9941936162829926</v>
+      </c>
+      <c r="L25">
+        <v>0.989899234930833</v>
+      </c>
+      <c r="M25">
+        <v>1.01208373250547</v>
+      </c>
+      <c r="N25">
+        <v>1.01208373250547</v>
+      </c>
+      <c r="O25">
+        <v>1.014669612616363</v>
+      </c>
+      <c r="P25">
+        <v>1.006120360431311</v>
+      </c>
+      <c r="Q25">
+        <v>1.006120360431311</v>
+      </c>
+      <c r="R25">
+        <v>1.003138674394231</v>
+      </c>
+      <c r="S25">
+        <v>1.003138674394231</v>
+      </c>
+      <c r="T25">
+        <v>1.000266725754179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.010224596069865</v>
+      </c>
+      <c r="D26">
+        <v>0.9980997015690948</v>
+      </c>
+      <c r="E26">
+        <v>1.010224596069865</v>
+      </c>
+      <c r="F26">
+        <v>0.9962633128932928</v>
+      </c>
+      <c r="G26">
+        <v>1.005198539992821</v>
+      </c>
+      <c r="H26">
+        <v>0.9952823213261278</v>
+      </c>
+      <c r="I26">
+        <v>0.9962633128932928</v>
+      </c>
+      <c r="J26">
+        <v>0.9975643142338269</v>
+      </c>
+      <c r="K26">
+        <v>0.9962633128932928</v>
+      </c>
+      <c r="L26">
+        <v>0.9980997015690948</v>
+      </c>
+      <c r="M26">
+        <v>1.00416214881948</v>
+      </c>
+      <c r="N26">
+        <v>1.00416214881948</v>
+      </c>
+      <c r="O26">
+        <v>1.004507612543927</v>
+      </c>
+      <c r="P26">
+        <v>1.001529203510751</v>
+      </c>
+      <c r="Q26">
+        <v>1.001529203510751</v>
+      </c>
+      <c r="R26">
+        <v>1.000212730856386</v>
+      </c>
+      <c r="S26">
+        <v>1.000212730856386</v>
+      </c>
+      <c r="T26">
+        <v>1.000438797680838</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9832929715596754</v>
+      </c>
+      <c r="D27">
+        <v>1.00401674550947</v>
+      </c>
+      <c r="E27">
+        <v>0.9832929715596754</v>
+      </c>
+      <c r="F27">
+        <v>1.004464741730569</v>
+      </c>
+      <c r="G27">
+        <v>0.9909148055660105</v>
+      </c>
+      <c r="H27">
+        <v>1.010626014464142</v>
+      </c>
+      <c r="I27">
+        <v>1.004464741730569</v>
+      </c>
+      <c r="J27">
+        <v>1.004147357255148</v>
+      </c>
+      <c r="K27">
+        <v>1.004464741730569</v>
+      </c>
+      <c r="L27">
+        <v>1.00401674550947</v>
+      </c>
+      <c r="M27">
+        <v>0.9936548585345729</v>
+      </c>
+      <c r="N27">
+        <v>0.9936548585345729</v>
+      </c>
+      <c r="O27">
+        <v>0.9927415075450522</v>
+      </c>
+      <c r="P27">
+        <v>0.9972581529332382</v>
+      </c>
+      <c r="Q27">
+        <v>0.9972581529332382</v>
+      </c>
+      <c r="R27">
+        <v>0.9990598001325708</v>
+      </c>
+      <c r="S27">
+        <v>0.9990598001325708</v>
+      </c>
+      <c r="T27">
+        <v>0.999577106014169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.001793473728005</v>
+      </c>
+      <c r="D28">
+        <v>0.9987357114247555</v>
+      </c>
+      <c r="E28">
+        <v>1.001793473728005</v>
+      </c>
+      <c r="F28">
+        <v>1.001020283755749</v>
+      </c>
+      <c r="G28">
+        <v>1.001515125517667</v>
+      </c>
+      <c r="H28">
+        <v>0.9961934018117365</v>
+      </c>
+      <c r="I28">
+        <v>1.001020283755749</v>
+      </c>
+      <c r="J28">
+        <v>0.999401768410632</v>
+      </c>
+      <c r="K28">
+        <v>1.001020283755749</v>
+      </c>
+      <c r="L28">
+        <v>0.9987357114247555</v>
+      </c>
+      <c r="M28">
+        <v>1.00026459257638</v>
+      </c>
+      <c r="N28">
+        <v>1.00026459257638</v>
+      </c>
+      <c r="O28">
+        <v>1.000681436890142</v>
+      </c>
+      <c r="P28">
+        <v>1.00051648963617</v>
+      </c>
+      <c r="Q28">
+        <v>1.00051648963617</v>
+      </c>
+      <c r="R28">
+        <v>1.000642438166065</v>
+      </c>
+      <c r="S28">
+        <v>1.000642438166065</v>
+      </c>
+      <c r="T28">
+        <v>0.999776627441424</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.051653835669303</v>
+      </c>
+      <c r="D29">
+        <v>0.9858837238187883</v>
+      </c>
+      <c r="E29">
+        <v>1.051653835669303</v>
+      </c>
+      <c r="F29">
+        <v>0.9892516159339554</v>
+      </c>
+      <c r="G29">
+        <v>1.029189022303483</v>
+      </c>
+      <c r="H29">
+        <v>0.9617150896515153</v>
+      </c>
+      <c r="I29">
+        <v>0.9892516159339554</v>
+      </c>
+      <c r="J29">
+        <v>0.9868656174852302</v>
+      </c>
+      <c r="K29">
+        <v>0.9892516159339554</v>
+      </c>
+      <c r="L29">
+        <v>0.9858837238187883</v>
+      </c>
+      <c r="M29">
+        <v>1.018768779744046</v>
+      </c>
+      <c r="N29">
+        <v>1.018768779744046</v>
+      </c>
+      <c r="O29">
+        <v>1.022242193930525</v>
+      </c>
+      <c r="P29">
+        <v>1.008929725140682</v>
+      </c>
+      <c r="Q29">
+        <v>1.008929725140682</v>
+      </c>
+      <c r="R29">
+        <v>1.004010197839001</v>
+      </c>
+      <c r="S29">
+        <v>1.004010197839001</v>
+      </c>
+      <c r="T29">
+        <v>1.000759817477046</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Gamma2F-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/Gamma2F-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9844652506623096</v>
+        <v>0.9614309864004817</v>
       </c>
       <c r="D4">
-        <v>1.003310073586582</v>
+        <v>1.010330661604223</v>
       </c>
       <c r="E4">
-        <v>0.9844652506623096</v>
+        <v>0.9614309864004817</v>
       </c>
       <c r="F4">
-        <v>1.004916183988919</v>
+        <v>1.008403116482019</v>
       </c>
       <c r="G4">
-        <v>0.9918275880867163</v>
+        <v>0.9783409540487464</v>
       </c>
       <c r="H4">
-        <v>1.008520942230992</v>
+        <v>1.027915576493386</v>
       </c>
       <c r="I4">
-        <v>1.004916183988919</v>
+        <v>1.008403116482019</v>
       </c>
       <c r="J4">
-        <v>1.003778330321967</v>
+        <v>1.009768693889603</v>
       </c>
       <c r="K4">
-        <v>1.004916183988919</v>
+        <v>1.008403116482019</v>
       </c>
       <c r="L4">
-        <v>1.003310073586582</v>
+        <v>1.010330661604223</v>
       </c>
       <c r="M4">
-        <v>0.9938876621244459</v>
+        <v>0.9858808240023522</v>
       </c>
       <c r="N4">
-        <v>0.9938876621244459</v>
+        <v>0.9858808240023522</v>
       </c>
       <c r="O4">
-        <v>0.9932009707785361</v>
+        <v>0.983367534017817</v>
       </c>
       <c r="P4">
-        <v>0.9975638360792703</v>
+        <v>0.9933882548289077</v>
       </c>
       <c r="Q4">
-        <v>0.9975638360792703</v>
+        <v>0.9933882548289077</v>
       </c>
       <c r="R4">
-        <v>0.9994019230566826</v>
+        <v>0.9971419702421855</v>
       </c>
       <c r="S4">
-        <v>0.9994019230566826</v>
+        <v>0.9971419702421855</v>
       </c>
       <c r="T4">
-        <v>0.9994697281462478</v>
+        <v>0.9993649981530762</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9539883536383288</v>
+        <v>0.975103083635018</v>
       </c>
       <c r="D5">
-        <v>1.012302593746397</v>
+        <v>1.007990149075786</v>
       </c>
       <c r="E5">
-        <v>0.9539883536383288</v>
+        <v>0.975103083635018</v>
       </c>
       <c r="F5">
-        <v>1.010063480036022</v>
+        <v>1.003045570766801</v>
       </c>
       <c r="G5">
-        <v>0.9741754002089317</v>
+        <v>0.9851623799153966</v>
       </c>
       <c r="H5">
-        <v>1.033233409272337</v>
+        <v>1.022248901073182</v>
       </c>
       <c r="I5">
-        <v>1.010063480036022</v>
+        <v>1.003045570766801</v>
       </c>
       <c r="J5">
-        <v>1.011649788832853</v>
+        <v>1.006548580035651</v>
       </c>
       <c r="K5">
-        <v>1.010063480036022</v>
+        <v>1.003045570766801</v>
       </c>
       <c r="L5">
-        <v>1.012302593746397</v>
+        <v>1.007990149075786</v>
       </c>
       <c r="M5">
-        <v>0.983145473692363</v>
+        <v>0.9915466163554021</v>
       </c>
       <c r="N5">
-        <v>0.983145473692363</v>
+        <v>0.9915466163554021</v>
       </c>
       <c r="O5">
-        <v>0.9801554491978859</v>
+        <v>0.9894185375420669</v>
       </c>
       <c r="P5">
-        <v>0.9921181424735828</v>
+        <v>0.9953796011592017</v>
       </c>
       <c r="Q5">
-        <v>0.9921181424735828</v>
+        <v>0.9953796011592017</v>
       </c>
       <c r="R5">
-        <v>0.9966044768641926</v>
+        <v>0.9972960935611014</v>
       </c>
       <c r="S5">
-        <v>0.9966044768641926</v>
+        <v>0.9972960935611014</v>
       </c>
       <c r="T5">
-        <v>0.9992355042891449</v>
+        <v>1.000016444083639</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.847179160778274</v>
+        <v>0.9844652506623096</v>
       </c>
       <c r="D6">
-        <v>1.042058417980433</v>
+        <v>1.003310073586582</v>
       </c>
       <c r="E6">
-        <v>0.847179160778274</v>
+        <v>0.9844652506623096</v>
       </c>
       <c r="F6">
-        <v>1.031269411743852</v>
+        <v>1.004916183988919</v>
       </c>
       <c r="G6">
-        <v>0.9134516554753367</v>
+        <v>0.9918275880867163</v>
       </c>
       <c r="H6">
-        <v>1.114210829254918</v>
+        <v>1.008520942230992</v>
       </c>
       <c r="I6">
-        <v>1.031269411743852</v>
+        <v>1.004916183988919</v>
       </c>
       <c r="J6">
-        <v>1.038912917448721</v>
+        <v>1.003778330321967</v>
       </c>
       <c r="K6">
-        <v>1.031269411743852</v>
+        <v>1.004916183988919</v>
       </c>
       <c r="L6">
-        <v>1.042058417980433</v>
+        <v>1.003310073586582</v>
       </c>
       <c r="M6">
-        <v>0.9446187893793534</v>
+        <v>0.9938876621244459</v>
       </c>
       <c r="N6">
-        <v>0.9446187893793534</v>
+        <v>0.9938876621244459</v>
       </c>
       <c r="O6">
-        <v>0.9342297447446812</v>
+        <v>0.9932009707785361</v>
       </c>
       <c r="P6">
-        <v>0.9735023301675195</v>
+        <v>0.9975638360792703</v>
       </c>
       <c r="Q6">
-        <v>0.9735023301675195</v>
+        <v>0.9975638360792703</v>
       </c>
       <c r="R6">
-        <v>0.9879441005616025</v>
+        <v>0.9994019230566826</v>
       </c>
       <c r="S6">
-        <v>0.9879441005616025</v>
+        <v>0.9994019230566826</v>
       </c>
       <c r="T6">
-        <v>0.9978470654469224</v>
+        <v>0.9994697281462478</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9949770784690625</v>
+        <v>0.9539883536383288</v>
       </c>
       <c r="D7">
-        <v>1.00116990707096</v>
+        <v>1.012302593746397</v>
       </c>
       <c r="E7">
-        <v>0.9949770784690625</v>
+        <v>0.9539883536383288</v>
       </c>
       <c r="F7">
-        <v>1.00141020969898</v>
+        <v>1.010063480036022</v>
       </c>
       <c r="G7">
-        <v>0.9972930060221205</v>
+        <v>0.9741754002089317</v>
       </c>
       <c r="H7">
-        <v>1.003073978278884</v>
+        <v>1.033233409272337</v>
       </c>
       <c r="I7">
-        <v>1.00141020969898</v>
+        <v>1.010063480036022</v>
       </c>
       <c r="J7">
-        <v>1.001239965724992</v>
+        <v>1.011649788832853</v>
       </c>
       <c r="K7">
-        <v>1.00141020969898</v>
+        <v>1.010063480036022</v>
       </c>
       <c r="L7">
-        <v>1.00116990707096</v>
+        <v>1.012302593746397</v>
       </c>
       <c r="M7">
-        <v>0.9980734927700112</v>
+        <v>0.983145473692363</v>
       </c>
       <c r="N7">
-        <v>0.9980734927700112</v>
+        <v>0.983145473692363</v>
       </c>
       <c r="O7">
-        <v>0.9978133305207143</v>
+        <v>0.9801554491978859</v>
       </c>
       <c r="P7">
-        <v>0.9991857317463341</v>
+        <v>0.9921181424735828</v>
       </c>
       <c r="Q7">
-        <v>0.9991857317463341</v>
+        <v>0.9921181424735828</v>
       </c>
       <c r="R7">
-        <v>0.9997418512344955</v>
+        <v>0.9966044768641926</v>
       </c>
       <c r="S7">
-        <v>0.9997418512344955</v>
+        <v>0.9966044768641926</v>
       </c>
       <c r="T7">
-        <v>0.9998606908775</v>
+        <v>0.9992355042891449</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9996416685529684</v>
+        <v>0.847179160778274</v>
       </c>
       <c r="D8">
-        <v>1.000116308809251</v>
+        <v>1.042058417980433</v>
       </c>
       <c r="E8">
-        <v>0.9996416685529684</v>
+        <v>0.847179160778274</v>
       </c>
       <c r="F8">
-        <v>1.000041472953625</v>
+        <v>1.031269411743852</v>
       </c>
       <c r="G8">
-        <v>0.9997855985810814</v>
+        <v>0.9134516554753367</v>
       </c>
       <c r="H8">
-        <v>1.000324411007555</v>
+        <v>1.114210829254918</v>
       </c>
       <c r="I8">
-        <v>1.000041472953625</v>
+        <v>1.031269411743852</v>
       </c>
       <c r="J8">
-        <v>1.000094491036824</v>
+        <v>1.038912917448721</v>
       </c>
       <c r="K8">
-        <v>1.000041472953625</v>
+        <v>1.031269411743852</v>
       </c>
       <c r="L8">
-        <v>1.000116308809251</v>
+        <v>1.042058417980433</v>
       </c>
       <c r="M8">
-        <v>0.9998789886811095</v>
+        <v>0.9446187893793534</v>
       </c>
       <c r="N8">
-        <v>0.9998789886811095</v>
+        <v>0.9446187893793534</v>
       </c>
       <c r="O8">
-        <v>0.9998478586477667</v>
+        <v>0.9342297447446812</v>
       </c>
       <c r="P8">
-        <v>0.9999331501052815</v>
+        <v>0.9735023301675195</v>
       </c>
       <c r="Q8">
-        <v>0.9999331501052815</v>
+        <v>0.9735023301675195</v>
       </c>
       <c r="R8">
-        <v>0.9999602308173674</v>
+        <v>0.9879441005616025</v>
       </c>
       <c r="S8">
-        <v>0.9999602308173674</v>
+        <v>0.9879441005616025</v>
       </c>
       <c r="T8">
-        <v>1.000000658490218</v>
+        <v>0.9978470654469224</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9911068652383997</v>
+        <v>0.9949770784690625</v>
       </c>
       <c r="D9">
-        <v>1.002062344294971</v>
+        <v>1.00116990707096</v>
       </c>
       <c r="E9">
-        <v>0.9911068652383997</v>
+        <v>0.9949770784690625</v>
       </c>
       <c r="F9">
-        <v>1.002512969841307</v>
+        <v>1.00141020969898</v>
       </c>
       <c r="G9">
-        <v>0.9952130645837153</v>
+        <v>0.9972930060221205</v>
       </c>
       <c r="H9">
-        <v>1.00541375040599</v>
+        <v>1.003073978278884</v>
       </c>
       <c r="I9">
-        <v>1.002512969841307</v>
+        <v>1.00141020969898</v>
       </c>
       <c r="J9">
-        <v>1.002193722179241</v>
+        <v>1.001239965724992</v>
       </c>
       <c r="K9">
-        <v>1.002512969841307</v>
+        <v>1.00141020969898</v>
       </c>
       <c r="L9">
-        <v>1.002062344294971</v>
+        <v>1.00116990707096</v>
       </c>
       <c r="M9">
-        <v>0.9965846047666855</v>
+        <v>0.9980734927700112</v>
       </c>
       <c r="N9">
-        <v>0.9965846047666855</v>
+        <v>0.9980734927700112</v>
       </c>
       <c r="O9">
-        <v>0.9961274247056955</v>
+        <v>0.9978133305207143</v>
       </c>
       <c r="P9">
-        <v>0.998560726458226</v>
+        <v>0.9991857317463341</v>
       </c>
       <c r="Q9">
-        <v>0.998560726458226</v>
+        <v>0.9991857317463341</v>
       </c>
       <c r="R9">
-        <v>0.9995487873039963</v>
+        <v>0.9997418512344955</v>
       </c>
       <c r="S9">
-        <v>0.9995487873039963</v>
+        <v>0.9997418512344955</v>
       </c>
       <c r="T9">
-        <v>0.9997504527572708</v>
+        <v>0.9998606908775</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8449867881214166</v>
+        <v>0.9996416685529684</v>
       </c>
       <c r="D10">
-        <v>1.042726607043495</v>
+        <v>1.000116308809251</v>
       </c>
       <c r="E10">
-        <v>0.8449867881214166</v>
+        <v>0.9996416685529684</v>
       </c>
       <c r="F10">
-        <v>1.031601331392923</v>
+        <v>1.000041472953625</v>
       </c>
       <c r="G10">
-        <v>0.9121680283856304</v>
+        <v>0.9997855985810814</v>
       </c>
       <c r="H10">
-        <v>1.11605671793183</v>
+        <v>1.000324411007555</v>
       </c>
       <c r="I10">
-        <v>1.031601331392923</v>
+        <v>1.000041472953625</v>
       </c>
       <c r="J10">
-        <v>1.039483069079432</v>
+        <v>1.000094491036824</v>
       </c>
       <c r="K10">
-        <v>1.031601331392923</v>
+        <v>1.000041472953625</v>
       </c>
       <c r="L10">
-        <v>1.042726607043495</v>
+        <v>1.000116308809251</v>
       </c>
       <c r="M10">
-        <v>0.9438566975824558</v>
+        <v>0.9998789886811095</v>
       </c>
       <c r="N10">
-        <v>0.9438566975824558</v>
+        <v>0.9998789886811095</v>
       </c>
       <c r="O10">
-        <v>0.9332938078501808</v>
+        <v>0.9998478586477667</v>
       </c>
       <c r="P10">
-        <v>0.9731049088526116</v>
+        <v>0.9999331501052815</v>
       </c>
       <c r="Q10">
-        <v>0.9731049088526116</v>
+        <v>0.9999331501052815</v>
       </c>
       <c r="R10">
-        <v>0.9877290144876895</v>
+        <v>0.9999602308173674</v>
       </c>
       <c r="S10">
-        <v>0.9877290144876895</v>
+        <v>0.9999602308173674</v>
       </c>
       <c r="T10">
-        <v>0.9978370903257878</v>
+        <v>1.000000658490218</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9855463478892246</v>
+        <v>0.9911068652383997</v>
       </c>
       <c r="D11">
-        <v>1.003218459769369</v>
+        <v>1.002062344294971</v>
       </c>
       <c r="E11">
-        <v>0.9855463478892246</v>
+        <v>0.9911068652383997</v>
       </c>
       <c r="F11">
-        <v>1.004324324860628</v>
+        <v>1.002512969841307</v>
       </c>
       <c r="G11">
-        <v>0.9923064184121815</v>
+        <v>0.9952130645837153</v>
       </c>
       <c r="H11">
-        <v>1.008371920255775</v>
+        <v>1.00541375040599</v>
       </c>
       <c r="I11">
-        <v>1.004324324860628</v>
+        <v>1.002512969841307</v>
       </c>
       <c r="J11">
-        <v>1.003540869607773</v>
+        <v>1.002193722179241</v>
       </c>
       <c r="K11">
-        <v>1.004324324860628</v>
+        <v>1.002512969841307</v>
       </c>
       <c r="L11">
-        <v>1.003218459769369</v>
+        <v>1.002062344294971</v>
       </c>
       <c r="M11">
-        <v>0.9943824038292965</v>
+        <v>0.9965846047666855</v>
       </c>
       <c r="N11">
-        <v>0.9943824038292965</v>
+        <v>0.9965846047666855</v>
       </c>
       <c r="O11">
-        <v>0.9936904086902582</v>
+        <v>0.9961274247056955</v>
       </c>
       <c r="P11">
-        <v>0.9976963775064069</v>
+        <v>0.998560726458226</v>
       </c>
       <c r="Q11">
-        <v>0.9976963775064069</v>
+        <v>0.998560726458226</v>
       </c>
       <c r="R11">
-        <v>0.9993533643449621</v>
+        <v>0.9995487873039963</v>
       </c>
       <c r="S11">
-        <v>0.9993533643449621</v>
+        <v>0.9995487873039963</v>
       </c>
       <c r="T11">
-        <v>0.9995513901324916</v>
+        <v>0.9997504527572708</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9535230524421041</v>
+        <v>0.8449867881214166</v>
       </c>
       <c r="D12">
-        <v>1.012842561473684</v>
+        <v>1.042726607043495</v>
       </c>
       <c r="E12">
-        <v>0.9535230524421041</v>
+        <v>0.8449867881214166</v>
       </c>
       <c r="F12">
-        <v>1.009417248157895</v>
+        <v>1.031601331392923</v>
       </c>
       <c r="G12">
-        <v>0.9736449644947345</v>
+        <v>0.9121680283856304</v>
       </c>
       <c r="H12">
-        <v>1.034899264210527</v>
+        <v>1.11605671793183</v>
       </c>
       <c r="I12">
-        <v>1.009417248157895</v>
+        <v>1.031601331392923</v>
       </c>
       <c r="J12">
-        <v>1.011843925399999</v>
+        <v>1.039483069079432</v>
       </c>
       <c r="K12">
-        <v>1.009417248157895</v>
+        <v>1.031601331392923</v>
       </c>
       <c r="L12">
-        <v>1.012842561473684</v>
+        <v>1.042726607043495</v>
       </c>
       <c r="M12">
-        <v>0.9831828069578941</v>
+        <v>0.9438566975824558</v>
       </c>
       <c r="N12">
-        <v>0.9831828069578941</v>
+        <v>0.9438566975824558</v>
       </c>
       <c r="O12">
-        <v>0.9800035261368408</v>
+        <v>0.9332938078501808</v>
       </c>
       <c r="P12">
-        <v>0.9919276206912278</v>
+        <v>0.9731049088526116</v>
       </c>
       <c r="Q12">
-        <v>0.9919276206912278</v>
+        <v>0.9731049088526116</v>
       </c>
       <c r="R12">
-        <v>0.9963000275578946</v>
+        <v>0.9877290144876895</v>
       </c>
       <c r="S12">
-        <v>0.9963000275578946</v>
+        <v>0.9877290144876895</v>
       </c>
       <c r="T12">
-        <v>0.9993618360298239</v>
+        <v>0.9978370903257878</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.031292682731341</v>
+        <v>0.9855463478892246</v>
       </c>
       <c r="D13">
-        <v>0.9920107885545467</v>
+        <v>1.003218459769369</v>
       </c>
       <c r="E13">
-        <v>1.031292682731341</v>
+        <v>0.9855463478892246</v>
       </c>
       <c r="F13">
-        <v>0.9924756967512409</v>
+        <v>1.004324324860628</v>
       </c>
       <c r="G13">
-        <v>1.017318568817098</v>
+        <v>0.9923064184121815</v>
       </c>
       <c r="H13">
-        <v>0.9786068822867866</v>
+        <v>1.008371920255775</v>
       </c>
       <c r="I13">
-        <v>0.9924756967512409</v>
+        <v>1.004324324860628</v>
       </c>
       <c r="J13">
-        <v>0.9921463322418944</v>
+        <v>1.003540869607773</v>
       </c>
       <c r="K13">
-        <v>0.9924756967512409</v>
+        <v>1.004324324860628</v>
       </c>
       <c r="L13">
-        <v>0.9920107885545467</v>
+        <v>1.003218459769369</v>
       </c>
       <c r="M13">
-        <v>1.011651735642944</v>
+        <v>0.9943824038292965</v>
       </c>
       <c r="N13">
-        <v>1.011651735642944</v>
+        <v>0.9943824038292965</v>
       </c>
       <c r="O13">
-        <v>1.013540680034329</v>
+        <v>0.9936904086902582</v>
       </c>
       <c r="P13">
-        <v>1.005259722679043</v>
+        <v>0.9976963775064069</v>
       </c>
       <c r="Q13">
-        <v>1.005259722679043</v>
+        <v>0.9976963775064069</v>
       </c>
       <c r="R13">
-        <v>1.002063716197092</v>
+        <v>0.9993533643449621</v>
       </c>
       <c r="S13">
-        <v>1.002063716197092</v>
+        <v>0.9993533643449621</v>
       </c>
       <c r="T13">
-        <v>1.000641825230485</v>
+        <v>0.9995513901324916</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7323862499999992</v>
+        <v>0.9535230524421041</v>
       </c>
       <c r="D14">
-        <v>1.073924099999999</v>
+        <v>1.012842561473684</v>
       </c>
       <c r="E14">
-        <v>0.7323862499999992</v>
+        <v>0.9535230524421041</v>
       </c>
       <c r="F14">
-        <v>1.0542662</v>
+        <v>1.009417248157895</v>
       </c>
       <c r="G14">
-        <v>0.8482630399999994</v>
+        <v>0.9736449644947345</v>
       </c>
       <c r="H14">
-        <v>1.200875300000002</v>
+        <v>1.034899264210527</v>
       </c>
       <c r="I14">
-        <v>1.0542662</v>
+        <v>1.009417248157895</v>
       </c>
       <c r="J14">
-        <v>1.0681929</v>
+        <v>1.011843925399999</v>
       </c>
       <c r="K14">
-        <v>1.0542662</v>
+        <v>1.009417248157895</v>
       </c>
       <c r="L14">
-        <v>1.073924099999999</v>
+        <v>1.012842561473684</v>
       </c>
       <c r="M14">
-        <v>0.9031551749999993</v>
+        <v>0.9831828069578941</v>
       </c>
       <c r="N14">
-        <v>0.9031551749999993</v>
+        <v>0.9831828069578941</v>
       </c>
       <c r="O14">
-        <v>0.8848577966666661</v>
+        <v>0.9800035261368408</v>
       </c>
       <c r="P14">
-        <v>0.9535255166666664</v>
+        <v>0.9919276206912278</v>
       </c>
       <c r="Q14">
-        <v>0.9535255166666664</v>
+        <v>0.9919276206912278</v>
       </c>
       <c r="R14">
-        <v>0.9787106875</v>
+        <v>0.9963000275578946</v>
       </c>
       <c r="S14">
-        <v>0.9787106875</v>
+        <v>0.9963000275578946</v>
       </c>
       <c r="T14">
-        <v>0.9963179650000001</v>
+        <v>0.9993618360298239</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.89885176</v>
+        <v>1.031292682731341</v>
       </c>
       <c r="D15">
-        <v>1.0273165</v>
+        <v>0.9920107885545467</v>
       </c>
       <c r="E15">
-        <v>0.89885176</v>
+        <v>1.031292682731341</v>
       </c>
       <c r="F15">
-        <v>1.021634</v>
+        <v>0.9924756967512409</v>
       </c>
       <c r="G15">
-        <v>0.9430533699999999</v>
+        <v>1.017318568817098</v>
       </c>
       <c r="H15">
-        <v>1.0739265</v>
+        <v>0.9786068822867866</v>
       </c>
       <c r="I15">
-        <v>1.021634</v>
+        <v>0.9924756967512409</v>
       </c>
       <c r="J15">
-        <v>1.0256598</v>
+        <v>0.9921463322418944</v>
       </c>
       <c r="K15">
-        <v>1.021634</v>
+        <v>0.9924756967512409</v>
       </c>
       <c r="L15">
-        <v>1.0273165</v>
+        <v>0.9920107885545467</v>
       </c>
       <c r="M15">
-        <v>0.9630841299999999</v>
+        <v>1.011651735642944</v>
       </c>
       <c r="N15">
-        <v>0.9630841299999999</v>
+        <v>1.011651735642944</v>
       </c>
       <c r="O15">
-        <v>0.95640721</v>
+        <v>1.013540680034329</v>
       </c>
       <c r="P15">
-        <v>0.9826007533333332</v>
+        <v>1.005259722679043</v>
       </c>
       <c r="Q15">
-        <v>0.9826007533333333</v>
+        <v>1.005259722679043</v>
       </c>
       <c r="R15">
-        <v>0.992359065</v>
+        <v>1.002063716197092</v>
       </c>
       <c r="S15">
-        <v>0.992359065</v>
+        <v>1.002063716197092</v>
       </c>
       <c r="T15">
-        <v>0.9984069883333332</v>
+        <v>1.000641825230485</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.88779747</v>
+        <v>0.7323862499999992</v>
       </c>
       <c r="D16">
-        <v>1.0216333</v>
+        <v>1.073924099999999</v>
       </c>
       <c r="E16">
-        <v>0.88779747</v>
+        <v>0.7323862499999992</v>
       </c>
       <c r="F16">
-        <v>1.0396018</v>
+        <v>1.0542662</v>
       </c>
       <c r="G16">
-        <v>0.94244704</v>
+        <v>0.8482630399999994</v>
       </c>
       <c r="H16">
+        <v>1.200875300000002</v>
+      </c>
+      <c r="I16">
         <v>1.0542662</v>
       </c>
-      <c r="I16">
-        <v>1.0396018</v>
-      </c>
       <c r="J16">
-        <v>1.0268719</v>
+        <v>1.0681929</v>
       </c>
       <c r="K16">
-        <v>1.0396018</v>
+        <v>1.0542662</v>
       </c>
       <c r="L16">
-        <v>1.0216333</v>
+        <v>1.073924099999999</v>
       </c>
       <c r="M16">
-        <v>0.954715385</v>
+        <v>0.9031551749999993</v>
       </c>
       <c r="N16">
-        <v>0.954715385</v>
+        <v>0.9031551749999993</v>
       </c>
       <c r="O16">
-        <v>0.9506259366666666</v>
+        <v>0.8848577966666661</v>
       </c>
       <c r="P16">
-        <v>0.9830108566666667</v>
+        <v>0.9535255166666664</v>
       </c>
       <c r="Q16">
-        <v>0.9830108566666667</v>
+        <v>0.9535255166666664</v>
       </c>
       <c r="R16">
-        <v>0.9971585924999999</v>
+        <v>0.9787106875</v>
       </c>
       <c r="S16">
-        <v>0.9971585924999999</v>
+        <v>0.9787106875</v>
       </c>
       <c r="T16">
-        <v>0.9954362849999999</v>
+        <v>0.9963179650000001</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.0806503</v>
+        <v>0.89885176</v>
       </c>
       <c r="D17">
-        <v>0.9803250699999999</v>
+        <v>1.0273165</v>
       </c>
       <c r="E17">
-        <v>1.0806503</v>
+        <v>0.89885176</v>
       </c>
       <c r="F17">
-        <v>0.9789596699999999</v>
+        <v>1.021634</v>
       </c>
       <c r="G17">
-        <v>1.0440417</v>
+        <v>0.9430533699999999</v>
       </c>
       <c r="H17">
-        <v>0.94779361</v>
+        <v>1.0739265</v>
       </c>
       <c r="I17">
-        <v>0.9789596699999999</v>
+        <v>1.021634</v>
       </c>
       <c r="J17">
-        <v>0.979927</v>
+        <v>1.0256598</v>
       </c>
       <c r="K17">
-        <v>0.9789596699999999</v>
+        <v>1.021634</v>
       </c>
       <c r="L17">
-        <v>0.9803250699999999</v>
+        <v>1.0273165</v>
       </c>
       <c r="M17">
-        <v>1.030487685</v>
+        <v>0.9630841299999999</v>
       </c>
       <c r="N17">
-        <v>1.030487685</v>
+        <v>0.9630841299999999</v>
       </c>
       <c r="O17">
-        <v>1.03500569</v>
+        <v>0.95640721</v>
       </c>
       <c r="P17">
-        <v>1.01331168</v>
+        <v>0.9826007533333332</v>
       </c>
       <c r="Q17">
-        <v>1.01331168</v>
+        <v>0.9826007533333333</v>
       </c>
       <c r="R17">
-        <v>1.0047236775</v>
+        <v>0.992359065</v>
       </c>
       <c r="S17">
-        <v>1.0047236775</v>
+        <v>0.992359065</v>
       </c>
       <c r="T17">
-        <v>1.001949558333333</v>
+        <v>0.9984069883333332</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8934019339726029</v>
+        <v>0.88779747</v>
       </c>
       <c r="D18">
-        <v>1.024513409589042</v>
+        <v>1.0216333</v>
       </c>
       <c r="E18">
-        <v>0.8934019339726029</v>
+        <v>0.88779747</v>
       </c>
       <c r="F18">
-        <v>1.030494487671233</v>
+        <v>1.0396018</v>
       </c>
       <c r="G18">
-        <v>0.9427552590410954</v>
+        <v>0.94244704</v>
       </c>
       <c r="H18">
-        <v>1.064229834246575</v>
+        <v>1.0542662</v>
       </c>
       <c r="I18">
-        <v>1.030494487671233</v>
+        <v>1.0396018</v>
       </c>
       <c r="J18">
-        <v>1.026257167123287</v>
+        <v>1.0268719</v>
       </c>
       <c r="K18">
-        <v>1.030494487671233</v>
+        <v>1.0396018</v>
       </c>
       <c r="L18">
-        <v>1.024513409589042</v>
+        <v>1.0216333</v>
       </c>
       <c r="M18">
-        <v>0.9589576717808223</v>
+        <v>0.954715385</v>
       </c>
       <c r="N18">
-        <v>0.9589576717808223</v>
+        <v>0.954715385</v>
       </c>
       <c r="O18">
-        <v>0.9535568675342466</v>
+        <v>0.9506259366666666</v>
       </c>
       <c r="P18">
-        <v>0.9828032770776258</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="Q18">
-        <v>0.9828032770776258</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="R18">
-        <v>0.9947260797260276</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="S18">
-        <v>0.9947260797260276</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="T18">
-        <v>0.9969420152739724</v>
+        <v>0.9954362849999999</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9523402036842106</v>
+        <v>1.0806503</v>
       </c>
       <c r="D19">
-        <v>1.011329992105263</v>
+        <v>0.9803250699999999</v>
       </c>
       <c r="E19">
-        <v>0.9523402036842106</v>
+        <v>1.0806503</v>
       </c>
       <c r="F19">
-        <v>1.012967856842105</v>
+        <v>0.9789596699999999</v>
       </c>
       <c r="G19">
-        <v>0.9741661673684209</v>
+        <v>1.0440417</v>
       </c>
       <c r="H19">
-        <v>1.029901346842105</v>
+        <v>0.94779361</v>
       </c>
       <c r="I19">
-        <v>1.012967856842105</v>
+        <v>0.9789596699999999</v>
       </c>
       <c r="J19">
-        <v>1.011807507368421</v>
+        <v>0.979927</v>
       </c>
       <c r="K19">
-        <v>1.012967856842105</v>
+        <v>0.9789596699999999</v>
       </c>
       <c r="L19">
-        <v>1.011329992105263</v>
+        <v>0.9803250699999999</v>
       </c>
       <c r="M19">
-        <v>0.9818350978947369</v>
+        <v>1.030487685</v>
       </c>
       <c r="N19">
-        <v>0.9818350978947369</v>
+        <v>1.030487685</v>
       </c>
       <c r="O19">
-        <v>0.9792787877192982</v>
+        <v>1.03500569</v>
       </c>
       <c r="P19">
-        <v>0.9922126842105264</v>
+        <v>1.01331168</v>
       </c>
       <c r="Q19">
-        <v>0.9922126842105264</v>
+        <v>1.01331168</v>
       </c>
       <c r="R19">
-        <v>0.9974014773684212</v>
+        <v>1.0047236775</v>
       </c>
       <c r="S19">
-        <v>0.9974014773684212</v>
+        <v>1.0047236775</v>
       </c>
       <c r="T19">
-        <v>0.9987521790350878</v>
+        <v>1.001949558333333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9559059336842104</v>
+        <v>0.8934019339726029</v>
       </c>
       <c r="D20">
-        <v>1.013161545263158</v>
+        <v>1.024513409589042</v>
       </c>
       <c r="E20">
-        <v>0.9559059336842104</v>
+        <v>0.8934019339726029</v>
       </c>
       <c r="F20">
-        <v>1.007175060526316</v>
+        <v>1.030494487671233</v>
       </c>
       <c r="G20">
-        <v>0.9743628205263156</v>
+        <v>0.9427552590410954</v>
       </c>
       <c r="H20">
-        <v>1.036237747894737</v>
+        <v>1.064229834246575</v>
       </c>
       <c r="I20">
-        <v>1.007175060526316</v>
+        <v>1.030494487671233</v>
       </c>
       <c r="J20">
-        <v>1.011416210526316</v>
+        <v>1.026257167123287</v>
       </c>
       <c r="K20">
-        <v>1.007175060526316</v>
+        <v>1.030494487671233</v>
       </c>
       <c r="L20">
-        <v>1.013161545263158</v>
+        <v>1.024513409589042</v>
       </c>
       <c r="M20">
-        <v>0.9845337394736842</v>
+        <v>0.9589576717808223</v>
       </c>
       <c r="N20">
-        <v>0.9845337394736842</v>
+        <v>0.9589576717808223</v>
       </c>
       <c r="O20">
-        <v>0.9811434331578947</v>
+        <v>0.9535568675342466</v>
       </c>
       <c r="P20">
-        <v>0.9920808464912282</v>
+        <v>0.9828032770776258</v>
       </c>
       <c r="Q20">
-        <v>0.9920808464912282</v>
+        <v>0.9828032770776258</v>
       </c>
       <c r="R20">
-        <v>0.9958544</v>
+        <v>0.9947260797260276</v>
       </c>
       <c r="S20">
-        <v>0.9958544</v>
+        <v>0.9947260797260276</v>
       </c>
       <c r="T20">
-        <v>0.9997098864035089</v>
+        <v>0.9969420152739724</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.03404051740268</v>
+        <v>0.9523402036842106</v>
       </c>
       <c r="D21">
-        <v>0.9897846227880728</v>
+        <v>1.011329992105263</v>
       </c>
       <c r="E21">
-        <v>1.03404051740268</v>
+        <v>0.9523402036842106</v>
       </c>
       <c r="F21">
-        <v>0.9945593124844816</v>
+        <v>1.012967856842105</v>
       </c>
       <c r="G21">
-        <v>1.019827281522938</v>
+        <v>0.9741661673684209</v>
       </c>
       <c r="H21">
-        <v>0.9718495272863409</v>
+        <v>1.029901346842105</v>
       </c>
       <c r="I21">
-        <v>0.9945593124844816</v>
+        <v>1.012967856842105</v>
       </c>
       <c r="J21">
-        <v>0.9911766633103142</v>
+        <v>1.011807507368421</v>
       </c>
       <c r="K21">
-        <v>0.9945593124844816</v>
+        <v>1.012967856842105</v>
       </c>
       <c r="L21">
-        <v>0.9897846227880728</v>
+        <v>1.011329992105263</v>
       </c>
       <c r="M21">
-        <v>1.011912570095376</v>
+        <v>0.9818350978947369</v>
       </c>
       <c r="N21">
-        <v>1.011912570095376</v>
+        <v>0.9818350978947369</v>
       </c>
       <c r="O21">
-        <v>1.014550807237897</v>
+        <v>0.9792787877192982</v>
       </c>
       <c r="P21">
-        <v>1.006128150891745</v>
+        <v>0.9922126842105264</v>
       </c>
       <c r="Q21">
-        <v>1.006128150891745</v>
+        <v>0.9922126842105264</v>
       </c>
       <c r="R21">
-        <v>1.003235941289929</v>
+        <v>0.9974014773684212</v>
       </c>
       <c r="S21">
-        <v>1.003235941289929</v>
+        <v>0.9974014773684212</v>
       </c>
       <c r="T21">
-        <v>1.000206320799138</v>
+        <v>0.9987521790350878</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.010317149885441</v>
+        <v>0.9559059336842104</v>
       </c>
       <c r="D22">
-        <v>0.9981479088090115</v>
+        <v>1.013161545263158</v>
       </c>
       <c r="E22">
-        <v>1.010317149885441</v>
+        <v>0.9559059336842104</v>
       </c>
       <c r="F22">
-        <v>0.9961117454867215</v>
+        <v>1.007175060526316</v>
       </c>
       <c r="G22">
-        <v>1.005203217176753</v>
+        <v>0.9743628205263156</v>
       </c>
       <c r="H22">
-        <v>0.9954489295334096</v>
+        <v>1.036237747894737</v>
       </c>
       <c r="I22">
-        <v>0.9961117454867215</v>
+        <v>1.007175060526316</v>
       </c>
       <c r="J22">
-        <v>0.9975542756302054</v>
+        <v>1.011416210526316</v>
       </c>
       <c r="K22">
-        <v>0.9961117454867215</v>
+        <v>1.007175060526316</v>
       </c>
       <c r="L22">
-        <v>0.9981479088090115</v>
+        <v>1.013161545263158</v>
       </c>
       <c r="M22">
-        <v>1.004232529347227</v>
+        <v>0.9845337394736842</v>
       </c>
       <c r="N22">
-        <v>1.004232529347227</v>
+        <v>0.9845337394736842</v>
       </c>
       <c r="O22">
-        <v>1.004556091957069</v>
+        <v>0.9811434331578947</v>
       </c>
       <c r="P22">
-        <v>1.001525601393725</v>
+        <v>0.9920808464912282</v>
       </c>
       <c r="Q22">
-        <v>1.001525601393725</v>
+        <v>0.9920808464912282</v>
       </c>
       <c r="R22">
-        <v>1.000172137416974</v>
+        <v>0.9958544</v>
       </c>
       <c r="S22">
-        <v>1.000172137416974</v>
+        <v>0.9958544</v>
       </c>
       <c r="T22">
-        <v>1.000463871086924</v>
+        <v>0.9997098864035089</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.034154683619237</v>
+        <v>1.03404051740268</v>
       </c>
       <c r="D23">
-        <v>0.9898418703008088</v>
+        <v>0.9897846227880728</v>
       </c>
       <c r="E23">
-        <v>1.034154683619237</v>
+        <v>1.03404051740268</v>
       </c>
       <c r="F23">
-        <v>0.9943763474419866</v>
+        <v>0.9945593124844816</v>
       </c>
       <c r="G23">
-        <v>1.019834481373462</v>
+        <v>1.019827281522938</v>
       </c>
       <c r="H23">
-        <v>0.9720479562981402</v>
+        <v>0.9718495272863409</v>
       </c>
       <c r="I23">
-        <v>0.9943763474419866</v>
+        <v>0.9945593124844816</v>
       </c>
       <c r="J23">
-        <v>0.9911638800032031</v>
+        <v>0.9911766633103142</v>
       </c>
       <c r="K23">
-        <v>0.9943763474419866</v>
+        <v>0.9945593124844816</v>
       </c>
       <c r="L23">
-        <v>0.9898418703008088</v>
+        <v>0.9897846227880728</v>
       </c>
       <c r="M23">
-        <v>1.011998276960023</v>
+        <v>1.011912570095376</v>
       </c>
       <c r="N23">
-        <v>1.011998276960023</v>
+        <v>1.011912570095376</v>
       </c>
       <c r="O23">
-        <v>1.014610345097836</v>
+        <v>1.014550807237897</v>
       </c>
       <c r="P23">
-        <v>1.006124300454011</v>
+        <v>1.006128150891745</v>
       </c>
       <c r="Q23">
-        <v>1.006124300454011</v>
+        <v>1.006128150891745</v>
       </c>
       <c r="R23">
-        <v>1.003187312201005</v>
+        <v>1.003235941289929</v>
       </c>
       <c r="S23">
-        <v>1.003187312201005</v>
+        <v>1.003235941289929</v>
       </c>
       <c r="T23">
-        <v>1.00023653650614</v>
+        <v>1.000206320799138</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.010270937435021</v>
+        <v>1.010317149885441</v>
       </c>
       <c r="D24">
-        <v>0.99812378356514</v>
+        <v>0.9981479088090115</v>
       </c>
       <c r="E24">
-        <v>1.010270937435021</v>
+        <v>1.010317149885441</v>
       </c>
       <c r="F24">
-        <v>0.9961875332836595</v>
+        <v>0.9961117454867215</v>
       </c>
       <c r="G24">
-        <v>1.005200911711278</v>
+        <v>1.005203217176753</v>
       </c>
       <c r="H24">
-        <v>0.9953655576678087</v>
+        <v>0.9954489295334096</v>
       </c>
       <c r="I24">
-        <v>0.9961875332836595</v>
+        <v>0.9961117454867215</v>
       </c>
       <c r="J24">
-        <v>0.9975592800789448</v>
+        <v>0.9975542756302054</v>
       </c>
       <c r="K24">
-        <v>0.9961875332836595</v>
+        <v>0.9961117454867215</v>
       </c>
       <c r="L24">
-        <v>0.99812378356514</v>
+        <v>0.9981479088090115</v>
       </c>
       <c r="M24">
-        <v>1.00419736050008</v>
+        <v>1.004232529347227</v>
       </c>
       <c r="N24">
-        <v>1.00419736050008</v>
+        <v>1.004232529347227</v>
       </c>
       <c r="O24">
-        <v>1.00453187757048</v>
+        <v>1.004556091957069</v>
       </c>
       <c r="P24">
-        <v>1.001527418094607</v>
+        <v>1.001525601393725</v>
       </c>
       <c r="Q24">
-        <v>1.001527418094607</v>
+        <v>1.001525601393725</v>
       </c>
       <c r="R24">
-        <v>1.00019244689187</v>
+        <v>1.000172137416974</v>
       </c>
       <c r="S24">
-        <v>1.00019244689187</v>
+        <v>1.000172137416974</v>
       </c>
       <c r="T24">
-        <v>1.000451333956975</v>
+        <v>1.000463871086924</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.034268230080107</v>
+        <v>1.034154683619237</v>
       </c>
       <c r="D25">
-        <v>0.989899234930833</v>
+        <v>0.9898418703008088</v>
       </c>
       <c r="E25">
-        <v>1.034268230080107</v>
+        <v>1.034154683619237</v>
       </c>
       <c r="F25">
-        <v>0.9941936162829926</v>
+        <v>0.9943763474419866</v>
       </c>
       <c r="G25">
-        <v>1.01984137283815</v>
+        <v>1.019834481373462</v>
       </c>
       <c r="H25">
-        <v>0.9722466540699179</v>
+        <v>0.9720479562981402</v>
       </c>
       <c r="I25">
-        <v>0.9941936162829926</v>
+        <v>0.9943763474419866</v>
       </c>
       <c r="J25">
-        <v>0.9911512463230752</v>
+        <v>0.9911638800032031</v>
       </c>
       <c r="K25">
-        <v>0.9941936162829926</v>
+        <v>0.9943763474419866</v>
       </c>
       <c r="L25">
-        <v>0.989899234930833</v>
+        <v>0.9898418703008088</v>
       </c>
       <c r="M25">
-        <v>1.01208373250547</v>
+        <v>1.011998276960023</v>
       </c>
       <c r="N25">
-        <v>1.01208373250547</v>
+        <v>1.011998276960023</v>
       </c>
       <c r="O25">
-        <v>1.014669612616363</v>
+        <v>1.014610345097836</v>
       </c>
       <c r="P25">
-        <v>1.006120360431311</v>
+        <v>1.006124300454011</v>
       </c>
       <c r="Q25">
-        <v>1.006120360431311</v>
+        <v>1.006124300454011</v>
       </c>
       <c r="R25">
-        <v>1.003138674394231</v>
+        <v>1.003187312201005</v>
       </c>
       <c r="S25">
-        <v>1.003138674394231</v>
+        <v>1.003187312201005</v>
       </c>
       <c r="T25">
-        <v>1.000266725754179</v>
+        <v>1.00023653650614</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.010224596069865</v>
+        <v>1.010270937435021</v>
       </c>
       <c r="D26">
-        <v>0.9980997015690948</v>
+        <v>0.99812378356514</v>
       </c>
       <c r="E26">
-        <v>1.010224596069865</v>
+        <v>1.010270937435021</v>
       </c>
       <c r="F26">
-        <v>0.9962633128932928</v>
+        <v>0.9961875332836595</v>
       </c>
       <c r="G26">
-        <v>1.005198539992821</v>
+        <v>1.005200911711278</v>
       </c>
       <c r="H26">
-        <v>0.9952823213261278</v>
+        <v>0.9953655576678087</v>
       </c>
       <c r="I26">
-        <v>0.9962633128932928</v>
+        <v>0.9961875332836595</v>
       </c>
       <c r="J26">
-        <v>0.9975643142338269</v>
+        <v>0.9975592800789448</v>
       </c>
       <c r="K26">
-        <v>0.9962633128932928</v>
+        <v>0.9961875332836595</v>
       </c>
       <c r="L26">
-        <v>0.9980997015690948</v>
+        <v>0.99812378356514</v>
       </c>
       <c r="M26">
-        <v>1.00416214881948</v>
+        <v>1.00419736050008</v>
       </c>
       <c r="N26">
-        <v>1.00416214881948</v>
+        <v>1.00419736050008</v>
       </c>
       <c r="O26">
-        <v>1.004507612543927</v>
+        <v>1.00453187757048</v>
       </c>
       <c r="P26">
-        <v>1.001529203510751</v>
+        <v>1.001527418094607</v>
       </c>
       <c r="Q26">
-        <v>1.001529203510751</v>
+        <v>1.001527418094607</v>
       </c>
       <c r="R26">
-        <v>1.000212730856386</v>
+        <v>1.00019244689187</v>
       </c>
       <c r="S26">
-        <v>1.000212730856386</v>
+        <v>1.00019244689187</v>
       </c>
       <c r="T26">
-        <v>1.000438797680838</v>
+        <v>1.000451333956975</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9832929715596754</v>
+        <v>1.034268230080107</v>
       </c>
       <c r="D27">
-        <v>1.00401674550947</v>
+        <v>0.989899234930833</v>
       </c>
       <c r="E27">
-        <v>0.9832929715596754</v>
+        <v>1.034268230080107</v>
       </c>
       <c r="F27">
-        <v>1.004464741730569</v>
+        <v>0.9941936162829926</v>
       </c>
       <c r="G27">
-        <v>0.9909148055660105</v>
+        <v>1.01984137283815</v>
       </c>
       <c r="H27">
-        <v>1.010626014464142</v>
+        <v>0.9722466540699179</v>
       </c>
       <c r="I27">
-        <v>1.004464741730569</v>
+        <v>0.9941936162829926</v>
       </c>
       <c r="J27">
-        <v>1.004147357255148</v>
+        <v>0.9911512463230752</v>
       </c>
       <c r="K27">
-        <v>1.004464741730569</v>
+        <v>0.9941936162829926</v>
       </c>
       <c r="L27">
-        <v>1.00401674550947</v>
+        <v>0.989899234930833</v>
       </c>
       <c r="M27">
-        <v>0.9936548585345729</v>
+        <v>1.01208373250547</v>
       </c>
       <c r="N27">
-        <v>0.9936548585345729</v>
+        <v>1.01208373250547</v>
       </c>
       <c r="O27">
-        <v>0.9927415075450522</v>
+        <v>1.014669612616363</v>
       </c>
       <c r="P27">
-        <v>0.9972581529332382</v>
+        <v>1.006120360431311</v>
       </c>
       <c r="Q27">
-        <v>0.9972581529332382</v>
+        <v>1.006120360431311</v>
       </c>
       <c r="R27">
-        <v>0.9990598001325708</v>
+        <v>1.003138674394231</v>
       </c>
       <c r="S27">
-        <v>0.9990598001325708</v>
+        <v>1.003138674394231</v>
       </c>
       <c r="T27">
-        <v>0.999577106014169</v>
+        <v>1.000266725754179</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.001793473728005</v>
+        <v>1.010224596069865</v>
       </c>
       <c r="D28">
-        <v>0.9987357114247555</v>
+        <v>0.9980997015690948</v>
       </c>
       <c r="E28">
-        <v>1.001793473728005</v>
+        <v>1.010224596069865</v>
       </c>
       <c r="F28">
-        <v>1.001020283755749</v>
+        <v>0.9962633128932928</v>
       </c>
       <c r="G28">
-        <v>1.001515125517667</v>
+        <v>1.005198539992821</v>
       </c>
       <c r="H28">
-        <v>0.9961934018117365</v>
+        <v>0.9952823213261278</v>
       </c>
       <c r="I28">
-        <v>1.001020283755749</v>
+        <v>0.9962633128932928</v>
       </c>
       <c r="J28">
-        <v>0.999401768410632</v>
+        <v>0.9975643142338269</v>
       </c>
       <c r="K28">
-        <v>1.001020283755749</v>
+        <v>0.9962633128932928</v>
       </c>
       <c r="L28">
-        <v>0.9987357114247555</v>
+        <v>0.9980997015690948</v>
       </c>
       <c r="M28">
-        <v>1.00026459257638</v>
+        <v>1.00416214881948</v>
       </c>
       <c r="N28">
-        <v>1.00026459257638</v>
+        <v>1.00416214881948</v>
       </c>
       <c r="O28">
-        <v>1.000681436890142</v>
+        <v>1.004507612543927</v>
       </c>
       <c r="P28">
-        <v>1.00051648963617</v>
+        <v>1.001529203510751</v>
       </c>
       <c r="Q28">
-        <v>1.00051648963617</v>
+        <v>1.001529203510751</v>
       </c>
       <c r="R28">
-        <v>1.000642438166065</v>
+        <v>1.000212730856386</v>
       </c>
       <c r="S28">
-        <v>1.000642438166065</v>
+        <v>1.000212730856386</v>
       </c>
       <c r="T28">
-        <v>0.999776627441424</v>
+        <v>1.000438797680838</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9832929715596754</v>
+      </c>
+      <c r="D29">
+        <v>1.00401674550947</v>
+      </c>
+      <c r="E29">
+        <v>0.9832929715596754</v>
+      </c>
+      <c r="F29">
+        <v>1.004464741730569</v>
+      </c>
+      <c r="G29">
+        <v>0.9909148055660105</v>
+      </c>
+      <c r="H29">
+        <v>1.010626014464142</v>
+      </c>
+      <c r="I29">
+        <v>1.004464741730569</v>
+      </c>
+      <c r="J29">
+        <v>1.004147357255148</v>
+      </c>
+      <c r="K29">
+        <v>1.004464741730569</v>
+      </c>
+      <c r="L29">
+        <v>1.00401674550947</v>
+      </c>
+      <c r="M29">
+        <v>0.9936548585345729</v>
+      </c>
+      <c r="N29">
+        <v>0.9936548585345729</v>
+      </c>
+      <c r="O29">
+        <v>0.9927415075450522</v>
+      </c>
+      <c r="P29">
+        <v>0.9972581529332382</v>
+      </c>
+      <c r="Q29">
+        <v>0.9972581529332382</v>
+      </c>
+      <c r="R29">
+        <v>0.9990598001325708</v>
+      </c>
+      <c r="S29">
+        <v>0.9990598001325708</v>
+      </c>
+      <c r="T29">
+        <v>0.999577106014169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.001793473728005</v>
+      </c>
+      <c r="D30">
+        <v>0.9987357114247555</v>
+      </c>
+      <c r="E30">
+        <v>1.001793473728005</v>
+      </c>
+      <c r="F30">
+        <v>1.001020283755749</v>
+      </c>
+      <c r="G30">
+        <v>1.001515125517667</v>
+      </c>
+      <c r="H30">
+        <v>0.9961934018117365</v>
+      </c>
+      <c r="I30">
+        <v>1.001020283755749</v>
+      </c>
+      <c r="J30">
+        <v>0.999401768410632</v>
+      </c>
+      <c r="K30">
+        <v>1.001020283755749</v>
+      </c>
+      <c r="L30">
+        <v>0.9987357114247555</v>
+      </c>
+      <c r="M30">
+        <v>1.00026459257638</v>
+      </c>
+      <c r="N30">
+        <v>1.00026459257638</v>
+      </c>
+      <c r="O30">
+        <v>1.000681436890142</v>
+      </c>
+      <c r="P30">
+        <v>1.00051648963617</v>
+      </c>
+      <c r="Q30">
+        <v>1.00051648963617</v>
+      </c>
+      <c r="R30">
+        <v>1.000642438166065</v>
+      </c>
+      <c r="S30">
+        <v>1.000642438166065</v>
+      </c>
+      <c r="T30">
+        <v>0.999776627441424</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.051653835669303</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9858837238187883</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.051653835669303</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9892516159339554</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.029189022303483</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9617150896515153</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9892516159339554</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9868656174852302</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9892516159339554</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9858837238187883</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.018768779744046</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.018768779744046</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.022242193930525</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.008929725140682</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.008929725140682</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.004010197839001</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.004010197839001</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.000759817477046</v>
       </c>
     </row>
